--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v3_11_0_Library.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v3_11_0_Library.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve">Sample and Library Normalization Planning Template</t>
   </si>
@@ -122,7 +122,10 @@
     <t xml:space="preserve">384-well plate</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample</t>
+    <t xml:space="preserve">Sample Biomek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Janus</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -171,12 +174,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -254,7 +251,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,10 +281,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,10 +471,10 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="0" t="n">
@@ -510,10 +503,10 @@
       <c r="F5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -542,10 +535,10 @@
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="0" t="n">
@@ -560,3843 +553,3843 @@
       <c r="D7" s="1"/>
       <c r="E7" s="0"/>
       <c r="F7" s="1"/>
-      <c r="H7" s="9"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
       <c r="E8" s="0"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="D9" s="1"/>
       <c r="E9" s="0"/>
       <c r="F9" s="1"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="D10" s="1"/>
       <c r="E10" s="0"/>
       <c r="F10" s="1"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="D11" s="1"/>
       <c r="E11" s="0"/>
       <c r="F11" s="1"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="D12" s="1"/>
       <c r="E12" s="0"/>
       <c r="F12" s="1"/>
-      <c r="H12" s="9"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="D13" s="1"/>
       <c r="E13" s="0"/>
       <c r="F13" s="1"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="D14" s="1"/>
       <c r="E14" s="0"/>
       <c r="F14" s="1"/>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="D15" s="1"/>
       <c r="E15" s="0"/>
       <c r="F15" s="1"/>
-      <c r="H15" s="9"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="D16" s="1"/>
       <c r="E16" s="0"/>
       <c r="F16" s="1"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="D17" s="1"/>
       <c r="E17" s="0"/>
       <c r="F17" s="1"/>
-      <c r="H17" s="9"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="D18" s="1"/>
       <c r="E18" s="0"/>
       <c r="F18" s="1"/>
-      <c r="H18" s="9"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="D19" s="1"/>
       <c r="E19" s="0"/>
       <c r="F19" s="1"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="D20" s="1"/>
       <c r="E20" s="0"/>
       <c r="F20" s="1"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="D21" s="1"/>
       <c r="E21" s="0"/>
       <c r="F21" s="1"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="D22" s="1"/>
       <c r="E22" s="0"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="0"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="0"/>
       <c r="F24" s="1"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="D25" s="1"/>
       <c r="E25" s="0"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="9"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="0"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="9"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="0"/>
       <c r="F27" s="1"/>
-      <c r="H27" s="9"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="0"/>
       <c r="F28" s="1"/>
-      <c r="H28" s="9"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="0"/>
       <c r="F29" s="1"/>
-      <c r="H29" s="9"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="0"/>
       <c r="F30" s="1"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="0"/>
       <c r="F31" s="1"/>
-      <c r="H31" s="9"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="0"/>
       <c r="F32" s="1"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="0"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="9"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="0"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="0"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="0"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="9"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="0"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="D38" s="1"/>
       <c r="E38" s="0"/>
       <c r="F38" s="1"/>
-      <c r="H38" s="9"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="0"/>
       <c r="F39" s="1"/>
-      <c r="H39" s="9"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="0"/>
       <c r="F40" s="1"/>
-      <c r="H40" s="9"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="D41" s="1"/>
       <c r="E41" s="0"/>
       <c r="F41" s="1"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="0"/>
       <c r="F42" s="1"/>
-      <c r="H42" s="9"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="0"/>
       <c r="F43" s="1"/>
-      <c r="H43" s="9"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="0"/>
       <c r="F44" s="1"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="0"/>
       <c r="F45" s="1"/>
-      <c r="H45" s="9"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="D46" s="1"/>
       <c r="E46" s="0"/>
       <c r="F46" s="1"/>
-      <c r="H46" s="9"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="D47" s="1"/>
       <c r="E47" s="0"/>
       <c r="F47" s="1"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="D48" s="1"/>
       <c r="E48" s="0"/>
       <c r="F48" s="1"/>
-      <c r="H48" s="9"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="D49" s="1"/>
       <c r="E49" s="0"/>
       <c r="F49" s="1"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="D50" s="1"/>
       <c r="E50" s="0"/>
       <c r="F50" s="1"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="D51" s="1"/>
       <c r="E51" s="0"/>
       <c r="F51" s="1"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="D52" s="1"/>
       <c r="E52" s="0"/>
       <c r="F52" s="1"/>
-      <c r="H52" s="9"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="D53" s="1"/>
       <c r="E53" s="0"/>
       <c r="F53" s="1"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="D54" s="1"/>
       <c r="E54" s="0"/>
       <c r="F54" s="1"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="D55" s="1"/>
       <c r="E55" s="0"/>
       <c r="F55" s="1"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="D56" s="1"/>
       <c r="E56" s="0"/>
       <c r="F56" s="1"/>
-      <c r="H56" s="9"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="0"/>
       <c r="F57" s="1"/>
-      <c r="H57" s="9"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="0"/>
       <c r="F58" s="1"/>
-      <c r="H58" s="9"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="D59" s="1"/>
       <c r="E59" s="0"/>
       <c r="F59" s="1"/>
-      <c r="H59" s="9"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="D60" s="1"/>
       <c r="E60" s="0"/>
       <c r="F60" s="1"/>
-      <c r="H60" s="9"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="D61" s="1"/>
       <c r="E61" s="0"/>
       <c r="F61" s="1"/>
-      <c r="H61" s="9"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="D62" s="1"/>
       <c r="E62" s="0"/>
       <c r="F62" s="1"/>
-      <c r="H62" s="9"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="D63" s="1"/>
       <c r="E63" s="0"/>
       <c r="F63" s="1"/>
-      <c r="H63" s="9"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="D64" s="1"/>
       <c r="E64" s="0"/>
       <c r="F64" s="1"/>
-      <c r="H64" s="9"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="D65" s="1"/>
       <c r="E65" s="0"/>
       <c r="F65" s="1"/>
-      <c r="H65" s="9"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="D66" s="1"/>
       <c r="E66" s="0"/>
       <c r="F66" s="1"/>
-      <c r="H66" s="9"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="D67" s="1"/>
       <c r="E67" s="0"/>
       <c r="F67" s="1"/>
-      <c r="H67" s="9"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="D68" s="1"/>
       <c r="E68" s="0"/>
       <c r="F68" s="1"/>
-      <c r="H68" s="9"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="D69" s="1"/>
       <c r="E69" s="0"/>
       <c r="F69" s="1"/>
-      <c r="H69" s="9"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="D70" s="1"/>
       <c r="E70" s="0"/>
       <c r="F70" s="1"/>
-      <c r="H70" s="9"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="D71" s="1"/>
       <c r="E71" s="0"/>
       <c r="F71" s="1"/>
-      <c r="H71" s="9"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="D72" s="1"/>
       <c r="E72" s="0"/>
       <c r="F72" s="1"/>
-      <c r="H72" s="9"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="D73" s="1"/>
       <c r="E73" s="0"/>
       <c r="F73" s="1"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="D74" s="1"/>
       <c r="E74" s="0"/>
       <c r="F74" s="1"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="D75" s="1"/>
       <c r="E75" s="0"/>
       <c r="F75" s="1"/>
-      <c r="H75" s="9"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="D76" s="1"/>
       <c r="E76" s="0"/>
       <c r="F76" s="1"/>
-      <c r="H76" s="9"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="D77" s="1"/>
       <c r="E77" s="0"/>
       <c r="F77" s="1"/>
-      <c r="H77" s="9"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="D78" s="1"/>
       <c r="E78" s="0"/>
       <c r="F78" s="1"/>
-      <c r="H78" s="9"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="D79" s="1"/>
       <c r="E79" s="0"/>
       <c r="F79" s="1"/>
-      <c r="H79" s="9"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="D80" s="1"/>
       <c r="E80" s="0"/>
       <c r="F80" s="1"/>
-      <c r="H80" s="9"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="D81" s="1"/>
       <c r="E81" s="0"/>
       <c r="F81" s="1"/>
-      <c r="H81" s="9"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="D82" s="1"/>
       <c r="E82" s="0"/>
       <c r="F82" s="1"/>
-      <c r="H82" s="9"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="D83" s="1"/>
       <c r="E83" s="0"/>
       <c r="F83" s="1"/>
-      <c r="H83" s="9"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="D84" s="1"/>
       <c r="E84" s="0"/>
       <c r="F84" s="1"/>
-      <c r="H84" s="9"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="D85" s="1"/>
       <c r="E85" s="0"/>
       <c r="F85" s="1"/>
-      <c r="H85" s="9"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="D86" s="1"/>
       <c r="E86" s="0"/>
       <c r="F86" s="1"/>
-      <c r="H86" s="9"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="D87" s="1"/>
       <c r="E87" s="0"/>
       <c r="F87" s="1"/>
-      <c r="H87" s="9"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="D88" s="1"/>
       <c r="E88" s="0"/>
       <c r="F88" s="1"/>
-      <c r="H88" s="9"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="D89" s="1"/>
       <c r="E89" s="0"/>
       <c r="F89" s="1"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="D90" s="1"/>
       <c r="E90" s="0"/>
       <c r="F90" s="1"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="D91" s="1"/>
       <c r="E91" s="0"/>
       <c r="F91" s="1"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="D92" s="1"/>
       <c r="E92" s="0"/>
       <c r="F92" s="1"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="D93" s="1"/>
       <c r="E93" s="0"/>
       <c r="F93" s="1"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="D94" s="1"/>
       <c r="E94" s="0"/>
       <c r="F94" s="1"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="D95" s="1"/>
       <c r="E95" s="0"/>
       <c r="F95" s="1"/>
-      <c r="H95" s="9"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="D96" s="1"/>
       <c r="E96" s="0"/>
       <c r="F96" s="1"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="D97" s="1"/>
       <c r="E97" s="0"/>
       <c r="F97" s="1"/>
-      <c r="H97" s="9"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="D98" s="1"/>
       <c r="E98" s="0"/>
       <c r="F98" s="1"/>
-      <c r="H98" s="9"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="D99" s="1"/>
       <c r="E99" s="0"/>
       <c r="F99" s="1"/>
-      <c r="H99" s="9"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="D100" s="1"/>
       <c r="E100" s="0"/>
       <c r="F100" s="1"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="D101" s="1"/>
       <c r="E101" s="0"/>
       <c r="F101" s="1"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6"/>
       <c r="D102" s="1"/>
       <c r="E102" s="0"/>
       <c r="F102" s="1"/>
-      <c r="H102" s="9"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6"/>
       <c r="D103" s="1"/>
       <c r="E103" s="0"/>
       <c r="F103" s="1"/>
-      <c r="H103" s="9"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6"/>
       <c r="D104" s="1"/>
       <c r="E104" s="0"/>
       <c r="F104" s="1"/>
-      <c r="H104" s="9"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6"/>
       <c r="D105" s="1"/>
       <c r="E105" s="0"/>
       <c r="F105" s="1"/>
-      <c r="H105" s="9"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6"/>
       <c r="D106" s="1"/>
       <c r="E106" s="0"/>
       <c r="F106" s="1"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6"/>
       <c r="D107" s="1"/>
       <c r="E107" s="0"/>
       <c r="F107" s="1"/>
-      <c r="H107" s="9"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6"/>
       <c r="D108" s="1"/>
       <c r="E108" s="0"/>
       <c r="F108" s="1"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6"/>
       <c r="D109" s="1"/>
       <c r="E109" s="0"/>
       <c r="F109" s="1"/>
-      <c r="H109" s="9"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6"/>
       <c r="D110" s="1"/>
       <c r="E110" s="0"/>
       <c r="F110" s="1"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6"/>
       <c r="D111" s="1"/>
       <c r="E111" s="0"/>
       <c r="F111" s="1"/>
-      <c r="H111" s="9"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6"/>
       <c r="D112" s="1"/>
       <c r="E112" s="0"/>
       <c r="F112" s="1"/>
-      <c r="H112" s="9"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6"/>
       <c r="D113" s="1"/>
       <c r="E113" s="0"/>
       <c r="F113" s="1"/>
-      <c r="H113" s="9"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6"/>
       <c r="D114" s="1"/>
       <c r="E114" s="0"/>
       <c r="F114" s="1"/>
-      <c r="H114" s="9"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6"/>
       <c r="D115" s="1"/>
       <c r="E115" s="0"/>
       <c r="F115" s="1"/>
-      <c r="H115" s="9"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6"/>
       <c r="D116" s="1"/>
       <c r="E116" s="0"/>
       <c r="F116" s="1"/>
-      <c r="H116" s="9"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6"/>
       <c r="D117" s="1"/>
       <c r="E117" s="0"/>
       <c r="F117" s="1"/>
-      <c r="H117" s="9"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6"/>
       <c r="D118" s="1"/>
       <c r="E118" s="0"/>
       <c r="F118" s="1"/>
-      <c r="H118" s="9"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6"/>
       <c r="D119" s="1"/>
       <c r="E119" s="0"/>
       <c r="F119" s="1"/>
-      <c r="H119" s="9"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6"/>
       <c r="D120" s="1"/>
       <c r="E120" s="0"/>
       <c r="F120" s="1"/>
-      <c r="H120" s="9"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6"/>
       <c r="D121" s="1"/>
       <c r="E121" s="0"/>
       <c r="F121" s="1"/>
-      <c r="H121" s="9"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6"/>
       <c r="D122" s="1"/>
       <c r="E122" s="0"/>
       <c r="F122" s="1"/>
-      <c r="H122" s="9"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6"/>
       <c r="D123" s="1"/>
       <c r="E123" s="0"/>
       <c r="F123" s="1"/>
-      <c r="H123" s="9"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6"/>
       <c r="D124" s="1"/>
       <c r="E124" s="0"/>
       <c r="F124" s="1"/>
-      <c r="H124" s="9"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6"/>
       <c r="D125" s="1"/>
       <c r="E125" s="0"/>
       <c r="F125" s="1"/>
-      <c r="H125" s="9"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6"/>
       <c r="D126" s="1"/>
       <c r="E126" s="0"/>
       <c r="F126" s="1"/>
-      <c r="H126" s="9"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6"/>
       <c r="D127" s="1"/>
       <c r="E127" s="0"/>
       <c r="F127" s="1"/>
-      <c r="H127" s="9"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6"/>
       <c r="D128" s="1"/>
       <c r="E128" s="0"/>
       <c r="F128" s="1"/>
-      <c r="H128" s="9"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6"/>
       <c r="D129" s="1"/>
       <c r="E129" s="0"/>
       <c r="F129" s="1"/>
-      <c r="H129" s="9"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6"/>
       <c r="D130" s="1"/>
       <c r="E130" s="0"/>
       <c r="F130" s="1"/>
-      <c r="H130" s="9"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6"/>
       <c r="D131" s="1"/>
       <c r="E131" s="0"/>
       <c r="F131" s="1"/>
-      <c r="H131" s="9"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6"/>
       <c r="D132" s="1"/>
       <c r="E132" s="0"/>
       <c r="F132" s="1"/>
-      <c r="H132" s="9"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6"/>
       <c r="D133" s="1"/>
       <c r="E133" s="0"/>
       <c r="F133" s="1"/>
-      <c r="H133" s="9"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6"/>
       <c r="D134" s="1"/>
       <c r="E134" s="0"/>
       <c r="F134" s="1"/>
-      <c r="H134" s="9"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6"/>
       <c r="D135" s="1"/>
       <c r="E135" s="0"/>
       <c r="F135" s="1"/>
-      <c r="H135" s="9"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6"/>
       <c r="D136" s="1"/>
       <c r="E136" s="0"/>
       <c r="F136" s="1"/>
-      <c r="H136" s="9"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6"/>
       <c r="D137" s="1"/>
       <c r="E137" s="0"/>
       <c r="F137" s="1"/>
-      <c r="H137" s="9"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6"/>
       <c r="D138" s="1"/>
       <c r="E138" s="0"/>
       <c r="F138" s="1"/>
-      <c r="H138" s="9"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6"/>
       <c r="D139" s="1"/>
       <c r="E139" s="0"/>
       <c r="F139" s="1"/>
-      <c r="H139" s="9"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6"/>
       <c r="D140" s="1"/>
       <c r="E140" s="0"/>
       <c r="F140" s="1"/>
-      <c r="H140" s="9"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6"/>
       <c r="D141" s="1"/>
       <c r="E141" s="0"/>
       <c r="F141" s="1"/>
-      <c r="H141" s="9"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6"/>
       <c r="D142" s="1"/>
       <c r="E142" s="0"/>
       <c r="F142" s="1"/>
-      <c r="H142" s="9"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6"/>
       <c r="D143" s="1"/>
       <c r="E143" s="0"/>
       <c r="F143" s="1"/>
-      <c r="H143" s="9"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6"/>
       <c r="D144" s="1"/>
       <c r="E144" s="0"/>
       <c r="F144" s="1"/>
-      <c r="H144" s="9"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6"/>
       <c r="D145" s="1"/>
       <c r="E145" s="0"/>
       <c r="F145" s="1"/>
-      <c r="H145" s="9"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6"/>
       <c r="D146" s="1"/>
       <c r="E146" s="0"/>
       <c r="F146" s="1"/>
-      <c r="H146" s="9"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6"/>
       <c r="D147" s="1"/>
       <c r="E147" s="0"/>
       <c r="F147" s="1"/>
-      <c r="H147" s="9"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6"/>
       <c r="D148" s="1"/>
       <c r="E148" s="0"/>
       <c r="F148" s="1"/>
-      <c r="H148" s="9"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6"/>
       <c r="D149" s="1"/>
       <c r="E149" s="0"/>
       <c r="F149" s="1"/>
-      <c r="H149" s="9"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6"/>
       <c r="D150" s="1"/>
       <c r="E150" s="0"/>
       <c r="F150" s="1"/>
-      <c r="H150" s="9"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6"/>
       <c r="D151" s="1"/>
       <c r="E151" s="0"/>
       <c r="F151" s="1"/>
-      <c r="H151" s="9"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6"/>
       <c r="D152" s="1"/>
       <c r="E152" s="0"/>
       <c r="F152" s="1"/>
-      <c r="H152" s="9"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6"/>
       <c r="D153" s="1"/>
       <c r="E153" s="0"/>
       <c r="F153" s="1"/>
-      <c r="H153" s="9"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6"/>
       <c r="D154" s="1"/>
       <c r="E154" s="0"/>
       <c r="F154" s="1"/>
-      <c r="H154" s="9"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6"/>
       <c r="D155" s="1"/>
       <c r="E155" s="0"/>
       <c r="F155" s="1"/>
-      <c r="H155" s="9"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6"/>
       <c r="D156" s="1"/>
       <c r="E156" s="0"/>
       <c r="F156" s="1"/>
-      <c r="H156" s="9"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6"/>
       <c r="D157" s="1"/>
       <c r="E157" s="0"/>
       <c r="F157" s="1"/>
-      <c r="H157" s="9"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6"/>
       <c r="D158" s="1"/>
       <c r="E158" s="0"/>
       <c r="F158" s="1"/>
-      <c r="H158" s="9"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6"/>
       <c r="D159" s="1"/>
       <c r="E159" s="0"/>
       <c r="F159" s="1"/>
-      <c r="H159" s="9"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6"/>
       <c r="D160" s="1"/>
       <c r="E160" s="0"/>
       <c r="F160" s="1"/>
-      <c r="H160" s="9"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6"/>
       <c r="D161" s="1"/>
       <c r="E161" s="0"/>
       <c r="F161" s="1"/>
-      <c r="H161" s="9"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6"/>
       <c r="D162" s="1"/>
       <c r="E162" s="0"/>
       <c r="F162" s="1"/>
-      <c r="H162" s="9"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6"/>
       <c r="D163" s="1"/>
       <c r="E163" s="0"/>
       <c r="F163" s="1"/>
-      <c r="H163" s="9"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6"/>
       <c r="D164" s="1"/>
       <c r="E164" s="0"/>
       <c r="F164" s="1"/>
-      <c r="H164" s="9"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6"/>
       <c r="D165" s="1"/>
       <c r="E165" s="0"/>
       <c r="F165" s="1"/>
-      <c r="H165" s="9"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6"/>
       <c r="D166" s="1"/>
       <c r="E166" s="0"/>
       <c r="F166" s="1"/>
-      <c r="H166" s="9"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6"/>
       <c r="D167" s="1"/>
       <c r="E167" s="0"/>
       <c r="F167" s="1"/>
-      <c r="H167" s="9"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6"/>
       <c r="D168" s="1"/>
       <c r="E168" s="0"/>
       <c r="F168" s="1"/>
-      <c r="H168" s="9"/>
+      <c r="H168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6"/>
       <c r="D169" s="1"/>
       <c r="E169" s="0"/>
       <c r="F169" s="1"/>
-      <c r="H169" s="9"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6"/>
       <c r="D170" s="1"/>
       <c r="E170" s="0"/>
       <c r="F170" s="1"/>
-      <c r="H170" s="9"/>
+      <c r="H170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6"/>
       <c r="D171" s="1"/>
       <c r="E171" s="0"/>
       <c r="F171" s="1"/>
-      <c r="H171" s="9"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6"/>
       <c r="D172" s="1"/>
       <c r="E172" s="0"/>
       <c r="F172" s="1"/>
-      <c r="H172" s="9"/>
+      <c r="H172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="6"/>
       <c r="D173" s="1"/>
       <c r="E173" s="0"/>
       <c r="F173" s="1"/>
-      <c r="H173" s="9"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="6"/>
       <c r="D174" s="1"/>
       <c r="E174" s="0"/>
       <c r="F174" s="1"/>
-      <c r="H174" s="9"/>
+      <c r="H174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="6"/>
       <c r="D175" s="1"/>
       <c r="E175" s="0"/>
       <c r="F175" s="1"/>
-      <c r="H175" s="9"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="6"/>
       <c r="D176" s="1"/>
       <c r="E176" s="0"/>
       <c r="F176" s="1"/>
-      <c r="H176" s="9"/>
+      <c r="H176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="6"/>
       <c r="D177" s="1"/>
       <c r="E177" s="0"/>
       <c r="F177" s="1"/>
-      <c r="H177" s="9"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="6"/>
       <c r="D178" s="1"/>
       <c r="E178" s="0"/>
       <c r="F178" s="1"/>
-      <c r="H178" s="9"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="6"/>
       <c r="D179" s="1"/>
       <c r="E179" s="0"/>
       <c r="F179" s="1"/>
-      <c r="H179" s="9"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="6"/>
       <c r="D180" s="1"/>
       <c r="E180" s="0"/>
       <c r="F180" s="1"/>
-      <c r="H180" s="9"/>
+      <c r="H180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="6"/>
       <c r="D181" s="1"/>
       <c r="E181" s="0"/>
       <c r="F181" s="1"/>
-      <c r="H181" s="9"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="6"/>
       <c r="D182" s="1"/>
       <c r="E182" s="0"/>
       <c r="F182" s="1"/>
-      <c r="H182" s="9"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="6"/>
       <c r="D183" s="1"/>
       <c r="E183" s="0"/>
       <c r="F183" s="1"/>
-      <c r="H183" s="9"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="6"/>
       <c r="D184" s="1"/>
       <c r="E184" s="0"/>
       <c r="F184" s="1"/>
-      <c r="H184" s="9"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="6"/>
       <c r="D185" s="1"/>
       <c r="E185" s="0"/>
       <c r="F185" s="1"/>
-      <c r="H185" s="9"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="6"/>
       <c r="D186" s="1"/>
       <c r="E186" s="0"/>
       <c r="F186" s="1"/>
-      <c r="H186" s="9"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="6"/>
       <c r="D187" s="1"/>
       <c r="E187" s="0"/>
       <c r="F187" s="1"/>
-      <c r="H187" s="9"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="6"/>
       <c r="D188" s="1"/>
       <c r="E188" s="0"/>
       <c r="F188" s="1"/>
-      <c r="H188" s="9"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="6"/>
       <c r="D189" s="1"/>
       <c r="E189" s="0"/>
       <c r="F189" s="1"/>
-      <c r="H189" s="9"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="6"/>
       <c r="D190" s="1"/>
       <c r="E190" s="0"/>
       <c r="F190" s="1"/>
-      <c r="H190" s="9"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="6"/>
       <c r="D191" s="1"/>
       <c r="E191" s="0"/>
       <c r="F191" s="1"/>
-      <c r="H191" s="9"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6"/>
       <c r="D192" s="1"/>
       <c r="E192" s="0"/>
       <c r="F192" s="1"/>
-      <c r="H192" s="9"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="6"/>
       <c r="D193" s="1"/>
       <c r="E193" s="0"/>
       <c r="F193" s="1"/>
-      <c r="H193" s="9"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="6"/>
       <c r="D194" s="1"/>
       <c r="E194" s="0"/>
       <c r="F194" s="1"/>
-      <c r="H194" s="9"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="6"/>
       <c r="D195" s="1"/>
       <c r="E195" s="0"/>
       <c r="F195" s="1"/>
-      <c r="H195" s="9"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="6"/>
       <c r="D196" s="1"/>
       <c r="E196" s="0"/>
       <c r="F196" s="1"/>
-      <c r="H196" s="9"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="6"/>
       <c r="D197" s="1"/>
       <c r="E197" s="0"/>
       <c r="F197" s="1"/>
-      <c r="H197" s="9"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="6"/>
       <c r="D198" s="1"/>
       <c r="E198" s="0"/>
       <c r="F198" s="1"/>
-      <c r="H198" s="9"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="6"/>
       <c r="D199" s="1"/>
       <c r="E199" s="0"/>
       <c r="F199" s="1"/>
-      <c r="H199" s="9"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="6"/>
       <c r="D200" s="1"/>
       <c r="E200" s="0"/>
       <c r="F200" s="1"/>
-      <c r="H200" s="9"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="6"/>
       <c r="D201" s="1"/>
       <c r="E201" s="0"/>
       <c r="F201" s="1"/>
-      <c r="H201" s="9"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="6"/>
       <c r="D202" s="1"/>
       <c r="E202" s="0"/>
       <c r="F202" s="1"/>
-      <c r="H202" s="9"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="6"/>
       <c r="D203" s="1"/>
       <c r="E203" s="0"/>
       <c r="F203" s="1"/>
-      <c r="H203" s="9"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="6"/>
       <c r="D204" s="1"/>
       <c r="E204" s="0"/>
       <c r="F204" s="1"/>
-      <c r="H204" s="9"/>
+      <c r="H204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="6"/>
       <c r="D205" s="1"/>
       <c r="E205" s="0"/>
       <c r="F205" s="1"/>
-      <c r="H205" s="9"/>
+      <c r="H205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="6"/>
       <c r="D206" s="1"/>
       <c r="E206" s="0"/>
       <c r="F206" s="1"/>
-      <c r="H206" s="9"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="6"/>
       <c r="D207" s="1"/>
       <c r="E207" s="0"/>
       <c r="F207" s="1"/>
-      <c r="H207" s="9"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="6"/>
       <c r="D208" s="1"/>
       <c r="E208" s="0"/>
       <c r="F208" s="1"/>
-      <c r="H208" s="9"/>
+      <c r="H208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="6"/>
       <c r="D209" s="1"/>
       <c r="E209" s="0"/>
       <c r="F209" s="1"/>
-      <c r="H209" s="9"/>
+      <c r="H209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="6"/>
       <c r="D210" s="1"/>
       <c r="E210" s="0"/>
       <c r="F210" s="1"/>
-      <c r="H210" s="9"/>
+      <c r="H210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="6"/>
       <c r="D211" s="1"/>
       <c r="E211" s="0"/>
       <c r="F211" s="1"/>
-      <c r="H211" s="9"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6"/>
       <c r="D212" s="1"/>
       <c r="E212" s="0"/>
       <c r="F212" s="1"/>
-      <c r="H212" s="9"/>
+      <c r="H212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="6"/>
       <c r="D213" s="1"/>
       <c r="E213" s="0"/>
       <c r="F213" s="1"/>
-      <c r="H213" s="9"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="6"/>
       <c r="D214" s="1"/>
       <c r="E214" s="0"/>
       <c r="F214" s="1"/>
-      <c r="H214" s="9"/>
+      <c r="H214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="6"/>
       <c r="D215" s="1"/>
       <c r="E215" s="0"/>
       <c r="F215" s="1"/>
-      <c r="H215" s="9"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="6"/>
       <c r="D216" s="1"/>
       <c r="E216" s="0"/>
       <c r="F216" s="1"/>
-      <c r="H216" s="9"/>
+      <c r="H216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="6"/>
       <c r="D217" s="1"/>
       <c r="E217" s="0"/>
       <c r="F217" s="1"/>
-      <c r="H217" s="9"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="6"/>
       <c r="D218" s="1"/>
       <c r="E218" s="0"/>
       <c r="F218" s="1"/>
-      <c r="H218" s="9"/>
+      <c r="H218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="6"/>
       <c r="D219" s="1"/>
       <c r="E219" s="0"/>
       <c r="F219" s="1"/>
-      <c r="H219" s="9"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="6"/>
       <c r="D220" s="1"/>
       <c r="E220" s="0"/>
       <c r="F220" s="1"/>
-      <c r="H220" s="9"/>
+      <c r="H220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="6"/>
       <c r="D221" s="1"/>
       <c r="E221" s="0"/>
       <c r="F221" s="1"/>
-      <c r="H221" s="9"/>
+      <c r="H221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="6"/>
       <c r="D222" s="1"/>
       <c r="E222" s="0"/>
       <c r="F222" s="1"/>
-      <c r="H222" s="9"/>
+      <c r="H222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="6"/>
       <c r="D223" s="1"/>
       <c r="E223" s="0"/>
       <c r="F223" s="1"/>
-      <c r="H223" s="9"/>
+      <c r="H223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="6"/>
       <c r="D224" s="1"/>
       <c r="E224" s="0"/>
       <c r="F224" s="1"/>
-      <c r="H224" s="9"/>
+      <c r="H224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="6"/>
       <c r="D225" s="1"/>
       <c r="E225" s="0"/>
       <c r="F225" s="1"/>
-      <c r="H225" s="9"/>
+      <c r="H225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="6"/>
       <c r="D226" s="1"/>
       <c r="E226" s="0"/>
       <c r="F226" s="1"/>
-      <c r="H226" s="9"/>
+      <c r="H226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="6"/>
       <c r="D227" s="1"/>
       <c r="E227" s="0"/>
       <c r="F227" s="1"/>
-      <c r="H227" s="9"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="6"/>
       <c r="D228" s="1"/>
       <c r="E228" s="0"/>
       <c r="F228" s="1"/>
-      <c r="H228" s="9"/>
+      <c r="H228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="6"/>
       <c r="D229" s="1"/>
       <c r="E229" s="0"/>
       <c r="F229" s="1"/>
-      <c r="H229" s="9"/>
+      <c r="H229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="6"/>
       <c r="D230" s="1"/>
       <c r="E230" s="0"/>
       <c r="F230" s="1"/>
-      <c r="H230" s="9"/>
+      <c r="H230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="6"/>
       <c r="D231" s="1"/>
       <c r="E231" s="0"/>
       <c r="F231" s="1"/>
-      <c r="H231" s="9"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="6"/>
       <c r="D232" s="1"/>
       <c r="E232" s="0"/>
       <c r="F232" s="1"/>
-      <c r="H232" s="9"/>
+      <c r="H232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="6"/>
       <c r="D233" s="1"/>
       <c r="E233" s="0"/>
       <c r="F233" s="1"/>
-      <c r="H233" s="9"/>
+      <c r="H233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="6"/>
       <c r="D234" s="1"/>
       <c r="E234" s="0"/>
       <c r="F234" s="1"/>
-      <c r="H234" s="9"/>
+      <c r="H234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="6"/>
       <c r="D235" s="1"/>
       <c r="E235" s="0"/>
       <c r="F235" s="1"/>
-      <c r="H235" s="9"/>
+      <c r="H235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="6"/>
       <c r="D236" s="1"/>
       <c r="E236" s="0"/>
       <c r="F236" s="1"/>
-      <c r="H236" s="9"/>
+      <c r="H236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="6"/>
       <c r="D237" s="1"/>
       <c r="E237" s="0"/>
       <c r="F237" s="1"/>
-      <c r="H237" s="9"/>
+      <c r="H237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="6"/>
       <c r="D238" s="1"/>
       <c r="E238" s="0"/>
       <c r="F238" s="1"/>
-      <c r="H238" s="9"/>
+      <c r="H238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="6"/>
       <c r="D239" s="1"/>
       <c r="E239" s="0"/>
       <c r="F239" s="1"/>
-      <c r="H239" s="9"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6"/>
       <c r="D240" s="1"/>
       <c r="E240" s="0"/>
       <c r="F240" s="1"/>
-      <c r="H240" s="9"/>
+      <c r="H240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="6"/>
       <c r="D241" s="1"/>
       <c r="E241" s="0"/>
       <c r="F241" s="1"/>
-      <c r="H241" s="9"/>
+      <c r="H241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="6"/>
       <c r="D242" s="1"/>
       <c r="E242" s="0"/>
       <c r="F242" s="1"/>
-      <c r="H242" s="9"/>
+      <c r="H242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="6"/>
       <c r="D243" s="1"/>
       <c r="E243" s="0"/>
       <c r="F243" s="1"/>
-      <c r="H243" s="9"/>
+      <c r="H243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="6"/>
       <c r="D244" s="1"/>
       <c r="E244" s="0"/>
       <c r="F244" s="1"/>
-      <c r="H244" s="9"/>
+      <c r="H244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="6"/>
       <c r="D245" s="1"/>
       <c r="E245" s="0"/>
       <c r="F245" s="1"/>
-      <c r="H245" s="9"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="6"/>
       <c r="D246" s="1"/>
       <c r="E246" s="0"/>
       <c r="F246" s="1"/>
-      <c r="H246" s="9"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="6"/>
       <c r="D247" s="1"/>
       <c r="E247" s="0"/>
       <c r="F247" s="1"/>
-      <c r="H247" s="9"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="6"/>
       <c r="D248" s="1"/>
       <c r="E248" s="0"/>
       <c r="F248" s="1"/>
-      <c r="H248" s="9"/>
+      <c r="H248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="6"/>
       <c r="D249" s="1"/>
       <c r="E249" s="0"/>
       <c r="F249" s="1"/>
-      <c r="H249" s="9"/>
+      <c r="H249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="6"/>
       <c r="D250" s="1"/>
       <c r="E250" s="0"/>
       <c r="F250" s="1"/>
-      <c r="H250" s="9"/>
+      <c r="H250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="6"/>
       <c r="D251" s="1"/>
       <c r="E251" s="0"/>
       <c r="F251" s="1"/>
-      <c r="H251" s="9"/>
+      <c r="H251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="6"/>
       <c r="D252" s="1"/>
       <c r="E252" s="0"/>
       <c r="F252" s="1"/>
-      <c r="H252" s="9"/>
+      <c r="H252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="6"/>
       <c r="D253" s="1"/>
       <c r="E253" s="0"/>
       <c r="F253" s="1"/>
-      <c r="H253" s="9"/>
+      <c r="H253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="6"/>
       <c r="D254" s="1"/>
       <c r="E254" s="0"/>
       <c r="F254" s="1"/>
-      <c r="H254" s="9"/>
+      <c r="H254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="6"/>
       <c r="D255" s="1"/>
       <c r="E255" s="0"/>
       <c r="F255" s="1"/>
-      <c r="H255" s="9"/>
+      <c r="H255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="6"/>
       <c r="D256" s="1"/>
       <c r="E256" s="0"/>
       <c r="F256" s="1"/>
-      <c r="H256" s="9"/>
+      <c r="H256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="6"/>
       <c r="D257" s="1"/>
       <c r="E257" s="0"/>
       <c r="F257" s="1"/>
-      <c r="H257" s="9"/>
+      <c r="H257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="6"/>
       <c r="D258" s="1"/>
       <c r="E258" s="0"/>
       <c r="F258" s="1"/>
-      <c r="H258" s="9"/>
+      <c r="H258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="6"/>
       <c r="D259" s="1"/>
       <c r="E259" s="0"/>
       <c r="F259" s="1"/>
-      <c r="H259" s="9"/>
+      <c r="H259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6"/>
       <c r="D260" s="1"/>
       <c r="E260" s="0"/>
       <c r="F260" s="1"/>
-      <c r="H260" s="9"/>
+      <c r="H260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="6"/>
       <c r="D261" s="1"/>
       <c r="E261" s="0"/>
       <c r="F261" s="1"/>
-      <c r="H261" s="9"/>
+      <c r="H261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="6"/>
       <c r="D262" s="1"/>
       <c r="E262" s="0"/>
       <c r="F262" s="1"/>
-      <c r="H262" s="9"/>
+      <c r="H262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="6"/>
       <c r="D263" s="1"/>
       <c r="E263" s="0"/>
       <c r="F263" s="1"/>
-      <c r="H263" s="9"/>
+      <c r="H263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="6"/>
       <c r="D264" s="1"/>
       <c r="E264" s="0"/>
       <c r="F264" s="1"/>
-      <c r="H264" s="9"/>
+      <c r="H264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="6"/>
       <c r="D265" s="1"/>
       <c r="E265" s="0"/>
       <c r="F265" s="1"/>
-      <c r="H265" s="9"/>
+      <c r="H265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="6"/>
       <c r="D266" s="1"/>
       <c r="E266" s="0"/>
       <c r="F266" s="1"/>
-      <c r="H266" s="9"/>
+      <c r="H266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="6"/>
       <c r="D267" s="1"/>
       <c r="E267" s="0"/>
       <c r="F267" s="1"/>
-      <c r="H267" s="9"/>
+      <c r="H267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="6"/>
       <c r="D268" s="1"/>
       <c r="E268" s="0"/>
       <c r="F268" s="1"/>
-      <c r="H268" s="9"/>
+      <c r="H268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="6"/>
       <c r="D269" s="1"/>
       <c r="E269" s="0"/>
       <c r="F269" s="1"/>
-      <c r="H269" s="9"/>
+      <c r="H269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="6"/>
       <c r="D270" s="1"/>
       <c r="E270" s="0"/>
       <c r="F270" s="1"/>
-      <c r="H270" s="9"/>
+      <c r="H270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="6"/>
       <c r="D271" s="1"/>
       <c r="E271" s="0"/>
       <c r="F271" s="1"/>
-      <c r="H271" s="9"/>
+      <c r="H271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="6"/>
       <c r="D272" s="1"/>
       <c r="E272" s="0"/>
       <c r="F272" s="1"/>
-      <c r="H272" s="9"/>
+      <c r="H272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="6"/>
       <c r="D273" s="1"/>
       <c r="E273" s="0"/>
       <c r="F273" s="1"/>
-      <c r="H273" s="9"/>
+      <c r="H273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="6"/>
       <c r="D274" s="1"/>
       <c r="E274" s="0"/>
       <c r="F274" s="1"/>
-      <c r="H274" s="9"/>
+      <c r="H274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="6"/>
       <c r="D275" s="1"/>
       <c r="E275" s="0"/>
       <c r="F275" s="1"/>
-      <c r="H275" s="9"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="6"/>
       <c r="D276" s="1"/>
       <c r="E276" s="0"/>
       <c r="F276" s="1"/>
-      <c r="H276" s="9"/>
+      <c r="H276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="6"/>
       <c r="D277" s="1"/>
       <c r="E277" s="0"/>
       <c r="F277" s="1"/>
-      <c r="H277" s="9"/>
+      <c r="H277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="6"/>
       <c r="D278" s="1"/>
       <c r="E278" s="0"/>
       <c r="F278" s="1"/>
-      <c r="H278" s="9"/>
+      <c r="H278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="6"/>
       <c r="D279" s="1"/>
       <c r="E279" s="0"/>
       <c r="F279" s="1"/>
-      <c r="H279" s="9"/>
+      <c r="H279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6"/>
       <c r="D280" s="1"/>
       <c r="E280" s="0"/>
       <c r="F280" s="1"/>
-      <c r="H280" s="9"/>
+      <c r="H280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6"/>
       <c r="D281" s="1"/>
       <c r="E281" s="0"/>
       <c r="F281" s="1"/>
-      <c r="H281" s="9"/>
+      <c r="H281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6"/>
       <c r="D282" s="1"/>
       <c r="E282" s="0"/>
       <c r="F282" s="1"/>
-      <c r="H282" s="9"/>
+      <c r="H282" s="8"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6"/>
       <c r="D283" s="1"/>
       <c r="E283" s="0"/>
       <c r="F283" s="1"/>
-      <c r="H283" s="9"/>
+      <c r="H283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6"/>
       <c r="D284" s="1"/>
       <c r="E284" s="0"/>
       <c r="F284" s="1"/>
-      <c r="H284" s="9"/>
+      <c r="H284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6"/>
       <c r="D285" s="1"/>
       <c r="E285" s="0"/>
       <c r="F285" s="1"/>
-      <c r="H285" s="9"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6"/>
       <c r="D286" s="1"/>
       <c r="E286" s="0"/>
       <c r="F286" s="1"/>
-      <c r="H286" s="9"/>
+      <c r="H286" s="8"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6"/>
       <c r="D287" s="1"/>
       <c r="E287" s="0"/>
       <c r="F287" s="1"/>
-      <c r="H287" s="9"/>
+      <c r="H287" s="8"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6"/>
       <c r="D288" s="1"/>
       <c r="E288" s="0"/>
       <c r="F288" s="1"/>
-      <c r="H288" s="9"/>
+      <c r="H288" s="8"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6"/>
       <c r="D289" s="1"/>
       <c r="E289" s="0"/>
       <c r="F289" s="1"/>
-      <c r="H289" s="9"/>
+      <c r="H289" s="8"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6"/>
       <c r="D290" s="1"/>
       <c r="E290" s="0"/>
       <c r="F290" s="1"/>
-      <c r="H290" s="9"/>
+      <c r="H290" s="8"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6"/>
       <c r="D291" s="1"/>
       <c r="E291" s="0"/>
       <c r="F291" s="1"/>
-      <c r="H291" s="9"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6"/>
       <c r="D292" s="1"/>
       <c r="E292" s="0"/>
       <c r="F292" s="1"/>
-      <c r="H292" s="9"/>
+      <c r="H292" s="8"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6"/>
       <c r="D293" s="1"/>
       <c r="E293" s="0"/>
       <c r="F293" s="1"/>
-      <c r="H293" s="9"/>
+      <c r="H293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6"/>
       <c r="D294" s="1"/>
       <c r="E294" s="0"/>
       <c r="F294" s="1"/>
-      <c r="H294" s="9"/>
+      <c r="H294" s="8"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6"/>
       <c r="D295" s="1"/>
       <c r="E295" s="0"/>
       <c r="F295" s="1"/>
-      <c r="H295" s="9"/>
+      <c r="H295" s="8"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6"/>
       <c r="D296" s="1"/>
       <c r="E296" s="0"/>
       <c r="F296" s="1"/>
-      <c r="H296" s="9"/>
+      <c r="H296" s="8"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6"/>
       <c r="D297" s="1"/>
       <c r="E297" s="0"/>
       <c r="F297" s="1"/>
-      <c r="H297" s="9"/>
+      <c r="H297" s="8"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6"/>
       <c r="D298" s="1"/>
       <c r="E298" s="0"/>
       <c r="F298" s="1"/>
-      <c r="H298" s="9"/>
+      <c r="H298" s="8"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="6"/>
       <c r="D299" s="1"/>
       <c r="E299" s="0"/>
       <c r="F299" s="1"/>
-      <c r="H299" s="9"/>
+      <c r="H299" s="8"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="6"/>
       <c r="D300" s="1"/>
       <c r="E300" s="0"/>
       <c r="F300" s="1"/>
-      <c r="H300" s="9"/>
+      <c r="H300" s="8"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6"/>
       <c r="D301" s="1"/>
       <c r="E301" s="0"/>
       <c r="F301" s="1"/>
-      <c r="H301" s="9"/>
+      <c r="H301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6"/>
       <c r="D302" s="1"/>
       <c r="E302" s="0"/>
       <c r="F302" s="1"/>
-      <c r="H302" s="9"/>
+      <c r="H302" s="8"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6"/>
       <c r="D303" s="1"/>
       <c r="E303" s="0"/>
       <c r="F303" s="1"/>
-      <c r="H303" s="9"/>
+      <c r="H303" s="8"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6"/>
       <c r="D304" s="1"/>
       <c r="E304" s="0"/>
       <c r="F304" s="1"/>
-      <c r="H304" s="9"/>
+      <c r="H304" s="8"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6"/>
       <c r="D305" s="1"/>
       <c r="E305" s="0"/>
       <c r="F305" s="1"/>
-      <c r="H305" s="9"/>
+      <c r="H305" s="8"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6"/>
       <c r="D306" s="1"/>
       <c r="E306" s="0"/>
       <c r="F306" s="1"/>
-      <c r="H306" s="9"/>
+      <c r="H306" s="8"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6"/>
       <c r="D307" s="1"/>
       <c r="E307" s="0"/>
       <c r="F307" s="1"/>
-      <c r="H307" s="9"/>
+      <c r="H307" s="8"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6"/>
       <c r="D308" s="1"/>
       <c r="E308" s="0"/>
       <c r="F308" s="1"/>
-      <c r="H308" s="9"/>
+      <c r="H308" s="8"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6"/>
       <c r="D309" s="1"/>
       <c r="E309" s="0"/>
       <c r="F309" s="1"/>
-      <c r="H309" s="9"/>
+      <c r="H309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6"/>
       <c r="D310" s="1"/>
       <c r="E310" s="0"/>
       <c r="F310" s="1"/>
-      <c r="H310" s="9"/>
+      <c r="H310" s="8"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6"/>
       <c r="D311" s="1"/>
       <c r="E311" s="0"/>
       <c r="F311" s="1"/>
-      <c r="H311" s="9"/>
+      <c r="H311" s="8"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6"/>
       <c r="D312" s="1"/>
       <c r="E312" s="0"/>
       <c r="F312" s="1"/>
-      <c r="H312" s="9"/>
+      <c r="H312" s="8"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6"/>
       <c r="D313" s="1"/>
       <c r="E313" s="0"/>
       <c r="F313" s="1"/>
-      <c r="H313" s="9"/>
+      <c r="H313" s="8"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6"/>
       <c r="D314" s="1"/>
       <c r="E314" s="0"/>
       <c r="F314" s="1"/>
-      <c r="H314" s="9"/>
+      <c r="H314" s="8"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6"/>
       <c r="D315" s="1"/>
       <c r="E315" s="0"/>
       <c r="F315" s="1"/>
-      <c r="H315" s="9"/>
+      <c r="H315" s="8"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6"/>
       <c r="D316" s="1"/>
       <c r="E316" s="0"/>
       <c r="F316" s="1"/>
-      <c r="H316" s="9"/>
+      <c r="H316" s="8"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6"/>
       <c r="D317" s="1"/>
       <c r="E317" s="0"/>
       <c r="F317" s="1"/>
-      <c r="H317" s="9"/>
+      <c r="H317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6"/>
       <c r="D318" s="1"/>
       <c r="E318" s="0"/>
       <c r="F318" s="1"/>
-      <c r="H318" s="9"/>
+      <c r="H318" s="8"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6"/>
       <c r="D319" s="1"/>
       <c r="E319" s="0"/>
       <c r="F319" s="1"/>
-      <c r="H319" s="9"/>
+      <c r="H319" s="8"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6"/>
       <c r="D320" s="1"/>
       <c r="E320" s="0"/>
       <c r="F320" s="1"/>
-      <c r="H320" s="9"/>
+      <c r="H320" s="8"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6"/>
       <c r="D321" s="1"/>
       <c r="E321" s="0"/>
       <c r="F321" s="1"/>
-      <c r="H321" s="9"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6"/>
       <c r="D322" s="1"/>
       <c r="E322" s="0"/>
       <c r="F322" s="1"/>
-      <c r="H322" s="9"/>
+      <c r="H322" s="8"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6"/>
       <c r="D323" s="1"/>
       <c r="E323" s="0"/>
       <c r="F323" s="1"/>
-      <c r="H323" s="9"/>
+      <c r="H323" s="8"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6"/>
       <c r="D324" s="1"/>
       <c r="E324" s="0"/>
       <c r="F324" s="1"/>
-      <c r="H324" s="9"/>
+      <c r="H324" s="8"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6"/>
       <c r="D325" s="1"/>
       <c r="E325" s="0"/>
       <c r="F325" s="1"/>
-      <c r="H325" s="9"/>
+      <c r="H325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6"/>
       <c r="D326" s="1"/>
       <c r="E326" s="0"/>
       <c r="F326" s="1"/>
-      <c r="H326" s="9"/>
+      <c r="H326" s="8"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6"/>
       <c r="D327" s="1"/>
       <c r="E327" s="0"/>
       <c r="F327" s="1"/>
-      <c r="H327" s="9"/>
+      <c r="H327" s="8"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6"/>
       <c r="D328" s="1"/>
       <c r="E328" s="0"/>
       <c r="F328" s="1"/>
-      <c r="H328" s="9"/>
+      <c r="H328" s="8"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6"/>
       <c r="D329" s="1"/>
       <c r="E329" s="0"/>
       <c r="F329" s="1"/>
-      <c r="H329" s="9"/>
+      <c r="H329" s="8"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6"/>
       <c r="D330" s="1"/>
       <c r="E330" s="0"/>
       <c r="F330" s="1"/>
-      <c r="H330" s="9"/>
+      <c r="H330" s="8"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6"/>
       <c r="D331" s="1"/>
       <c r="E331" s="0"/>
       <c r="F331" s="1"/>
-      <c r="H331" s="9"/>
+      <c r="H331" s="8"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6"/>
       <c r="D332" s="1"/>
       <c r="E332" s="0"/>
       <c r="F332" s="1"/>
-      <c r="H332" s="9"/>
+      <c r="H332" s="8"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6"/>
       <c r="D333" s="1"/>
       <c r="E333" s="0"/>
       <c r="F333" s="1"/>
-      <c r="H333" s="9"/>
+      <c r="H333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6"/>
       <c r="D334" s="1"/>
       <c r="E334" s="0"/>
       <c r="F334" s="1"/>
-      <c r="H334" s="9"/>
+      <c r="H334" s="8"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6"/>
       <c r="D335" s="1"/>
       <c r="E335" s="0"/>
       <c r="F335" s="1"/>
-      <c r="H335" s="9"/>
+      <c r="H335" s="8"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6"/>
       <c r="D336" s="1"/>
       <c r="E336" s="0"/>
       <c r="F336" s="1"/>
-      <c r="H336" s="9"/>
+      <c r="H336" s="8"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6"/>
       <c r="D337" s="1"/>
       <c r="E337" s="0"/>
       <c r="F337" s="1"/>
-      <c r="H337" s="9"/>
+      <c r="H337" s="8"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6"/>
       <c r="D338" s="1"/>
       <c r="E338" s="0"/>
       <c r="F338" s="1"/>
-      <c r="H338" s="9"/>
+      <c r="H338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6"/>
       <c r="D339" s="1"/>
       <c r="E339" s="0"/>
       <c r="F339" s="1"/>
-      <c r="H339" s="9"/>
+      <c r="H339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6"/>
       <c r="D340" s="1"/>
       <c r="E340" s="0"/>
       <c r="F340" s="1"/>
-      <c r="H340" s="9"/>
+      <c r="H340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="6"/>
       <c r="D341" s="1"/>
       <c r="E341" s="0"/>
       <c r="F341" s="1"/>
-      <c r="H341" s="9"/>
+      <c r="H341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="6"/>
       <c r="D342" s="1"/>
       <c r="E342" s="0"/>
       <c r="F342" s="1"/>
-      <c r="H342" s="9"/>
+      <c r="H342" s="8"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6"/>
       <c r="D343" s="1"/>
       <c r="E343" s="0"/>
       <c r="F343" s="1"/>
-      <c r="H343" s="9"/>
+      <c r="H343" s="8"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6"/>
       <c r="D344" s="1"/>
       <c r="E344" s="0"/>
       <c r="F344" s="1"/>
-      <c r="H344" s="9"/>
+      <c r="H344" s="8"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6"/>
       <c r="D345" s="1"/>
       <c r="E345" s="0"/>
       <c r="F345" s="1"/>
-      <c r="H345" s="9"/>
+      <c r="H345" s="8"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6"/>
       <c r="D346" s="1"/>
       <c r="E346" s="0"/>
       <c r="F346" s="1"/>
-      <c r="H346" s="9"/>
+      <c r="H346" s="8"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6"/>
       <c r="D347" s="1"/>
       <c r="E347" s="0"/>
       <c r="F347" s="1"/>
-      <c r="H347" s="9"/>
+      <c r="H347" s="8"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6"/>
       <c r="D348" s="1"/>
       <c r="E348" s="0"/>
       <c r="F348" s="1"/>
-      <c r="H348" s="9"/>
+      <c r="H348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6"/>
       <c r="D349" s="1"/>
       <c r="E349" s="0"/>
       <c r="F349" s="1"/>
-      <c r="H349" s="9"/>
+      <c r="H349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6"/>
       <c r="D350" s="1"/>
       <c r="E350" s="0"/>
       <c r="F350" s="1"/>
-      <c r="H350" s="9"/>
+      <c r="H350" s="8"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6"/>
       <c r="D351" s="1"/>
       <c r="E351" s="0"/>
       <c r="F351" s="1"/>
-      <c r="H351" s="9"/>
+      <c r="H351" s="8"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6"/>
       <c r="D352" s="1"/>
       <c r="E352" s="0"/>
       <c r="F352" s="1"/>
-      <c r="H352" s="9"/>
+      <c r="H352" s="8"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6"/>
       <c r="D353" s="1"/>
       <c r="E353" s="0"/>
       <c r="F353" s="1"/>
-      <c r="H353" s="9"/>
+      <c r="H353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6"/>
       <c r="D354" s="1"/>
       <c r="E354" s="0"/>
       <c r="F354" s="1"/>
-      <c r="H354" s="9"/>
+      <c r="H354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6"/>
       <c r="D355" s="1"/>
       <c r="E355" s="0"/>
       <c r="F355" s="1"/>
-      <c r="H355" s="9"/>
+      <c r="H355" s="8"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6"/>
       <c r="D356" s="1"/>
       <c r="E356" s="0"/>
       <c r="F356" s="1"/>
-      <c r="H356" s="9"/>
+      <c r="H356" s="8"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6"/>
       <c r="D357" s="1"/>
       <c r="E357" s="0"/>
       <c r="F357" s="1"/>
-      <c r="H357" s="9"/>
+      <c r="H357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6"/>
       <c r="D358" s="1"/>
       <c r="E358" s="0"/>
       <c r="F358" s="1"/>
-      <c r="H358" s="9"/>
+      <c r="H358" s="8"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6"/>
       <c r="D359" s="1"/>
       <c r="E359" s="0"/>
       <c r="F359" s="1"/>
-      <c r="H359" s="9"/>
+      <c r="H359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6"/>
       <c r="D360" s="1"/>
       <c r="E360" s="0"/>
       <c r="F360" s="1"/>
-      <c r="H360" s="9"/>
+      <c r="H360" s="8"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="6"/>
       <c r="D361" s="1"/>
       <c r="E361" s="0"/>
       <c r="F361" s="1"/>
-      <c r="H361" s="9"/>
+      <c r="H361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="6"/>
       <c r="D362" s="1"/>
       <c r="E362" s="0"/>
       <c r="F362" s="1"/>
-      <c r="H362" s="9"/>
+      <c r="H362" s="8"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6"/>
       <c r="D363" s="1"/>
       <c r="E363" s="0"/>
       <c r="F363" s="1"/>
-      <c r="H363" s="9"/>
+      <c r="H363" s="8"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6"/>
       <c r="D364" s="1"/>
       <c r="E364" s="0"/>
       <c r="F364" s="1"/>
-      <c r="H364" s="9"/>
+      <c r="H364" s="8"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6"/>
       <c r="D365" s="1"/>
       <c r="E365" s="0"/>
       <c r="F365" s="1"/>
-      <c r="H365" s="9"/>
+      <c r="H365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6"/>
       <c r="D366" s="1"/>
       <c r="E366" s="0"/>
       <c r="F366" s="1"/>
-      <c r="H366" s="9"/>
+      <c r="H366" s="8"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6"/>
       <c r="D367" s="1"/>
       <c r="E367" s="0"/>
       <c r="F367" s="1"/>
-      <c r="H367" s="9"/>
+      <c r="H367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6"/>
       <c r="D368" s="1"/>
       <c r="E368" s="0"/>
       <c r="F368" s="1"/>
-      <c r="H368" s="9"/>
+      <c r="H368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6"/>
       <c r="D369" s="1"/>
       <c r="E369" s="0"/>
       <c r="F369" s="1"/>
-      <c r="H369" s="9"/>
+      <c r="H369" s="8"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6"/>
       <c r="D370" s="1"/>
       <c r="E370" s="0"/>
       <c r="F370" s="1"/>
-      <c r="H370" s="9"/>
+      <c r="H370" s="8"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6"/>
       <c r="D371" s="1"/>
       <c r="E371" s="0"/>
       <c r="F371" s="1"/>
-      <c r="H371" s="9"/>
+      <c r="H371" s="8"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6"/>
       <c r="D372" s="1"/>
       <c r="E372" s="0"/>
       <c r="F372" s="1"/>
-      <c r="H372" s="9"/>
+      <c r="H372" s="8"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6"/>
       <c r="D373" s="1"/>
       <c r="E373" s="0"/>
       <c r="F373" s="1"/>
-      <c r="H373" s="9"/>
+      <c r="H373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6"/>
       <c r="D374" s="1"/>
       <c r="E374" s="0"/>
       <c r="F374" s="1"/>
-      <c r="H374" s="9"/>
+      <c r="H374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6"/>
       <c r="D375" s="1"/>
       <c r="E375" s="0"/>
       <c r="F375" s="1"/>
-      <c r="H375" s="9"/>
+      <c r="H375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6"/>
       <c r="D376" s="1"/>
       <c r="E376" s="0"/>
       <c r="F376" s="1"/>
-      <c r="H376" s="9"/>
+      <c r="H376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6"/>
       <c r="D377" s="1"/>
       <c r="E377" s="0"/>
       <c r="F377" s="1"/>
-      <c r="H377" s="9"/>
+      <c r="H377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6"/>
       <c r="D378" s="1"/>
       <c r="E378" s="0"/>
       <c r="F378" s="1"/>
-      <c r="H378" s="9"/>
+      <c r="H378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6"/>
       <c r="D379" s="1"/>
       <c r="E379" s="0"/>
       <c r="F379" s="1"/>
-      <c r="H379" s="9"/>
+      <c r="H379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6"/>
       <c r="D380" s="1"/>
       <c r="E380" s="0"/>
       <c r="F380" s="1"/>
-      <c r="H380" s="9"/>
+      <c r="H380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6"/>
       <c r="D381" s="1"/>
       <c r="E381" s="0"/>
       <c r="F381" s="1"/>
-      <c r="H381" s="9"/>
+      <c r="H381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6"/>
       <c r="D382" s="1"/>
       <c r="E382" s="0"/>
       <c r="F382" s="1"/>
-      <c r="H382" s="9"/>
+      <c r="H382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6"/>
       <c r="D383" s="1"/>
       <c r="E383" s="0"/>
       <c r="F383" s="1"/>
-      <c r="H383" s="9"/>
+      <c r="H383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6"/>
       <c r="D384" s="1"/>
       <c r="E384" s="0"/>
       <c r="F384" s="1"/>
-      <c r="H384" s="9"/>
+      <c r="H384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6"/>
       <c r="D385" s="1"/>
       <c r="E385" s="0"/>
       <c r="F385" s="1"/>
-      <c r="H385" s="9"/>
+      <c r="H385" s="8"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6"/>
       <c r="D386" s="1"/>
       <c r="E386" s="0"/>
       <c r="F386" s="1"/>
-      <c r="H386" s="9"/>
+      <c r="H386" s="8"/>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6"/>
       <c r="D387" s="1"/>
       <c r="E387" s="0"/>
       <c r="F387" s="1"/>
-      <c r="H387" s="9"/>
+      <c r="H387" s="8"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6"/>
       <c r="D388" s="1"/>
       <c r="E388" s="0"/>
       <c r="F388" s="1"/>
-      <c r="H388" s="9"/>
+      <c r="H388" s="8"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6"/>
       <c r="D389" s="1"/>
       <c r="E389" s="0"/>
       <c r="F389" s="1"/>
-      <c r="H389" s="9"/>
+      <c r="H389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6"/>
       <c r="D390" s="1"/>
       <c r="E390" s="0"/>
       <c r="F390" s="1"/>
-      <c r="H390" s="9"/>
+      <c r="H390" s="8"/>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6"/>
       <c r="D391" s="1"/>
       <c r="E391" s="0"/>
       <c r="F391" s="1"/>
-      <c r="H391" s="9"/>
+      <c r="H391" s="8"/>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6"/>
       <c r="D392" s="1"/>
       <c r="E392" s="0"/>
       <c r="F392" s="1"/>
-      <c r="H392" s="9"/>
+      <c r="H392" s="8"/>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6"/>
       <c r="D393" s="1"/>
       <c r="E393" s="0"/>
       <c r="F393" s="1"/>
-      <c r="H393" s="9"/>
+      <c r="H393" s="8"/>
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6"/>
       <c r="D394" s="1"/>
       <c r="E394" s="0"/>
       <c r="F394" s="1"/>
-      <c r="H394" s="9"/>
+      <c r="H394" s="8"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6"/>
       <c r="D395" s="1"/>
       <c r="E395" s="0"/>
       <c r="F395" s="1"/>
-      <c r="H395" s="9"/>
+      <c r="H395" s="8"/>
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6"/>
       <c r="D396" s="1"/>
       <c r="E396" s="0"/>
       <c r="F396" s="1"/>
-      <c r="H396" s="9"/>
+      <c r="H396" s="8"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6"/>
       <c r="D397" s="1"/>
       <c r="E397" s="0"/>
       <c r="F397" s="1"/>
-      <c r="H397" s="9"/>
+      <c r="H397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6"/>
       <c r="D398" s="1"/>
       <c r="E398" s="0"/>
       <c r="F398" s="1"/>
-      <c r="H398" s="9"/>
+      <c r="H398" s="8"/>
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6"/>
       <c r="D399" s="1"/>
       <c r="E399" s="0"/>
       <c r="F399" s="1"/>
-      <c r="H399" s="9"/>
+      <c r="H399" s="8"/>
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6"/>
       <c r="D400" s="1"/>
       <c r="E400" s="0"/>
       <c r="F400" s="1"/>
-      <c r="H400" s="9"/>
+      <c r="H400" s="8"/>
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6"/>
       <c r="D401" s="1"/>
       <c r="E401" s="0"/>
       <c r="F401" s="1"/>
-      <c r="H401" s="9"/>
+      <c r="H401" s="8"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6"/>
       <c r="D402" s="1"/>
       <c r="E402" s="0"/>
       <c r="F402" s="1"/>
-      <c r="H402" s="9"/>
+      <c r="H402" s="8"/>
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6"/>
       <c r="D403" s="1"/>
       <c r="E403" s="0"/>
       <c r="F403" s="1"/>
-      <c r="H403" s="9"/>
+      <c r="H403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6"/>
       <c r="D404" s="1"/>
       <c r="E404" s="0"/>
       <c r="F404" s="1"/>
-      <c r="H404" s="9"/>
+      <c r="H404" s="8"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6"/>
       <c r="D405" s="1"/>
       <c r="E405" s="0"/>
       <c r="F405" s="1"/>
-      <c r="H405" s="9"/>
+      <c r="H405" s="8"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6"/>
       <c r="D406" s="1"/>
       <c r="E406" s="0"/>
       <c r="F406" s="1"/>
-      <c r="H406" s="9"/>
+      <c r="H406" s="8"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="6"/>
       <c r="D407" s="1"/>
       <c r="E407" s="0"/>
       <c r="F407" s="1"/>
-      <c r="H407" s="9"/>
+      <c r="H407" s="8"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="6"/>
       <c r="D408" s="1"/>
       <c r="E408" s="0"/>
       <c r="F408" s="1"/>
-      <c r="H408" s="9"/>
+      <c r="H408" s="8"/>
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="6"/>
       <c r="D409" s="1"/>
       <c r="E409" s="0"/>
       <c r="F409" s="1"/>
-      <c r="H409" s="9"/>
+      <c r="H409" s="8"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6"/>
       <c r="D410" s="1"/>
       <c r="E410" s="0"/>
       <c r="F410" s="1"/>
-      <c r="H410" s="9"/>
+      <c r="H410" s="8"/>
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6"/>
       <c r="D411" s="1"/>
       <c r="E411" s="0"/>
       <c r="F411" s="1"/>
-      <c r="H411" s="9"/>
+      <c r="H411" s="8"/>
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6"/>
       <c r="D412" s="1"/>
       <c r="E412" s="0"/>
       <c r="F412" s="1"/>
-      <c r="H412" s="9"/>
+      <c r="H412" s="8"/>
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6"/>
       <c r="D413" s="1"/>
       <c r="E413" s="0"/>
       <c r="F413" s="1"/>
-      <c r="H413" s="9"/>
+      <c r="H413" s="8"/>
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6"/>
       <c r="D414" s="1"/>
       <c r="E414" s="0"/>
       <c r="F414" s="1"/>
-      <c r="H414" s="9"/>
+      <c r="H414" s="8"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="6"/>
       <c r="D415" s="1"/>
       <c r="E415" s="0"/>
       <c r="F415" s="1"/>
-      <c r="H415" s="9"/>
+      <c r="H415" s="8"/>
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="6"/>
       <c r="D416" s="1"/>
       <c r="E416" s="0"/>
       <c r="F416" s="1"/>
-      <c r="H416" s="9"/>
+      <c r="H416" s="8"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6"/>
       <c r="D417" s="1"/>
       <c r="E417" s="0"/>
       <c r="F417" s="1"/>
-      <c r="H417" s="9"/>
+      <c r="H417" s="8"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6"/>
       <c r="D418" s="1"/>
       <c r="E418" s="0"/>
       <c r="F418" s="1"/>
-      <c r="H418" s="9"/>
+      <c r="H418" s="8"/>
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6"/>
       <c r="D419" s="1"/>
       <c r="E419" s="0"/>
       <c r="F419" s="1"/>
-      <c r="H419" s="9"/>
+      <c r="H419" s="8"/>
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6"/>
       <c r="D420" s="1"/>
       <c r="E420" s="0"/>
       <c r="F420" s="1"/>
-      <c r="H420" s="9"/>
+      <c r="H420" s="8"/>
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6"/>
       <c r="D421" s="1"/>
       <c r="E421" s="0"/>
       <c r="F421" s="1"/>
-      <c r="H421" s="9"/>
+      <c r="H421" s="8"/>
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6"/>
       <c r="D422" s="1"/>
       <c r="E422" s="0"/>
       <c r="F422" s="1"/>
-      <c r="H422" s="9"/>
+      <c r="H422" s="8"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6"/>
       <c r="D423" s="1"/>
       <c r="E423" s="0"/>
       <c r="F423" s="1"/>
-      <c r="H423" s="9"/>
+      <c r="H423" s="8"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6"/>
       <c r="D424" s="1"/>
       <c r="E424" s="0"/>
       <c r="F424" s="1"/>
-      <c r="H424" s="9"/>
+      <c r="H424" s="8"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6"/>
       <c r="D425" s="1"/>
       <c r="E425" s="0"/>
       <c r="F425" s="1"/>
-      <c r="H425" s="9"/>
+      <c r="H425" s="8"/>
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6"/>
       <c r="D426" s="1"/>
       <c r="E426" s="0"/>
       <c r="F426" s="1"/>
-      <c r="H426" s="9"/>
+      <c r="H426" s="8"/>
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6"/>
       <c r="D427" s="1"/>
       <c r="E427" s="0"/>
       <c r="F427" s="1"/>
-      <c r="H427" s="9"/>
+      <c r="H427" s="8"/>
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6"/>
       <c r="D428" s="1"/>
       <c r="E428" s="0"/>
       <c r="F428" s="1"/>
-      <c r="H428" s="9"/>
+      <c r="H428" s="8"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6"/>
       <c r="D429" s="1"/>
       <c r="E429" s="0"/>
       <c r="F429" s="1"/>
-      <c r="H429" s="9"/>
+      <c r="H429" s="8"/>
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6"/>
       <c r="D430" s="1"/>
       <c r="E430" s="0"/>
       <c r="F430" s="1"/>
-      <c r="H430" s="9"/>
+      <c r="H430" s="8"/>
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6"/>
       <c r="D431" s="1"/>
       <c r="E431" s="0"/>
       <c r="F431" s="1"/>
-      <c r="H431" s="9"/>
+      <c r="H431" s="8"/>
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6"/>
       <c r="D432" s="1"/>
       <c r="E432" s="0"/>
       <c r="F432" s="1"/>
-      <c r="H432" s="9"/>
+      <c r="H432" s="8"/>
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6"/>
       <c r="D433" s="1"/>
       <c r="E433" s="0"/>
       <c r="F433" s="1"/>
-      <c r="H433" s="9"/>
+      <c r="H433" s="8"/>
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6"/>
       <c r="D434" s="1"/>
       <c r="E434" s="0"/>
       <c r="F434" s="1"/>
-      <c r="H434" s="9"/>
+      <c r="H434" s="8"/>
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6"/>
       <c r="D435" s="1"/>
       <c r="E435" s="0"/>
       <c r="F435" s="1"/>
-      <c r="H435" s="9"/>
+      <c r="H435" s="8"/>
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6"/>
       <c r="D436" s="1"/>
       <c r="E436" s="0"/>
       <c r="F436" s="1"/>
-      <c r="H436" s="9"/>
+      <c r="H436" s="8"/>
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6"/>
       <c r="D437" s="1"/>
       <c r="E437" s="0"/>
       <c r="F437" s="1"/>
-      <c r="H437" s="9"/>
+      <c r="H437" s="8"/>
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6"/>
       <c r="D438" s="1"/>
       <c r="E438" s="0"/>
       <c r="F438" s="1"/>
-      <c r="H438" s="9"/>
+      <c r="H438" s="8"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6"/>
       <c r="D439" s="1"/>
       <c r="E439" s="0"/>
       <c r="F439" s="1"/>
-      <c r="H439" s="9"/>
+      <c r="H439" s="8"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6"/>
       <c r="D440" s="1"/>
       <c r="E440" s="0"/>
       <c r="F440" s="1"/>
-      <c r="H440" s="9"/>
+      <c r="H440" s="8"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6"/>
       <c r="D441" s="1"/>
       <c r="E441" s="0"/>
       <c r="F441" s="1"/>
-      <c r="H441" s="9"/>
+      <c r="H441" s="8"/>
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6"/>
       <c r="D442" s="1"/>
       <c r="E442" s="0"/>
       <c r="F442" s="1"/>
-      <c r="H442" s="9"/>
+      <c r="H442" s="8"/>
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6"/>
       <c r="D443" s="1"/>
       <c r="E443" s="0"/>
       <c r="F443" s="1"/>
-      <c r="H443" s="9"/>
+      <c r="H443" s="8"/>
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6"/>
       <c r="D444" s="1"/>
       <c r="E444" s="0"/>
       <c r="F444" s="1"/>
-      <c r="H444" s="9"/>
+      <c r="H444" s="8"/>
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6"/>
       <c r="D445" s="1"/>
       <c r="E445" s="0"/>
       <c r="F445" s="1"/>
-      <c r="H445" s="9"/>
+      <c r="H445" s="8"/>
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6"/>
       <c r="D446" s="1"/>
       <c r="E446" s="0"/>
       <c r="F446" s="1"/>
-      <c r="H446" s="9"/>
+      <c r="H446" s="8"/>
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6"/>
       <c r="D447" s="1"/>
       <c r="E447" s="0"/>
       <c r="F447" s="1"/>
-      <c r="H447" s="9"/>
+      <c r="H447" s="8"/>
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6"/>
       <c r="D448" s="1"/>
       <c r="E448" s="0"/>
       <c r="F448" s="1"/>
-      <c r="H448" s="9"/>
+      <c r="H448" s="8"/>
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6"/>
       <c r="D449" s="1"/>
       <c r="E449" s="0"/>
       <c r="F449" s="1"/>
-      <c r="H449" s="9"/>
+      <c r="H449" s="8"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6"/>
       <c r="D450" s="1"/>
       <c r="E450" s="0"/>
       <c r="F450" s="1"/>
-      <c r="H450" s="9"/>
+      <c r="H450" s="8"/>
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6"/>
       <c r="D451" s="1"/>
       <c r="E451" s="0"/>
       <c r="F451" s="1"/>
-      <c r="H451" s="9"/>
+      <c r="H451" s="8"/>
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6"/>
       <c r="D452" s="1"/>
       <c r="E452" s="0"/>
       <c r="F452" s="1"/>
-      <c r="H452" s="9"/>
+      <c r="H452" s="8"/>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6"/>
       <c r="D453" s="1"/>
       <c r="E453" s="0"/>
       <c r="F453" s="1"/>
-      <c r="H453" s="9"/>
+      <c r="H453" s="8"/>
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6"/>
       <c r="D454" s="1"/>
       <c r="E454" s="0"/>
       <c r="F454" s="1"/>
-      <c r="H454" s="9"/>
+      <c r="H454" s="8"/>
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6"/>
       <c r="D455" s="1"/>
       <c r="E455" s="0"/>
       <c r="F455" s="1"/>
-      <c r="H455" s="9"/>
+      <c r="H455" s="8"/>
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6"/>
       <c r="D456" s="1"/>
       <c r="E456" s="0"/>
       <c r="F456" s="1"/>
-      <c r="H456" s="9"/>
+      <c r="H456" s="8"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6"/>
       <c r="D457" s="1"/>
       <c r="E457" s="0"/>
       <c r="F457" s="1"/>
-      <c r="H457" s="9"/>
+      <c r="H457" s="8"/>
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6"/>
       <c r="D458" s="1"/>
       <c r="E458" s="0"/>
       <c r="F458" s="1"/>
-      <c r="H458" s="9"/>
+      <c r="H458" s="8"/>
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6"/>
       <c r="D459" s="1"/>
       <c r="E459" s="0"/>
       <c r="F459" s="1"/>
-      <c r="H459" s="9"/>
+      <c r="H459" s="8"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6"/>
       <c r="D460" s="1"/>
       <c r="E460" s="0"/>
       <c r="F460" s="1"/>
-      <c r="H460" s="9"/>
+      <c r="H460" s="8"/>
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6"/>
       <c r="D461" s="1"/>
       <c r="E461" s="0"/>
       <c r="F461" s="1"/>
-      <c r="H461" s="9"/>
+      <c r="H461" s="8"/>
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6"/>
       <c r="D462" s="1"/>
       <c r="E462" s="0"/>
       <c r="F462" s="1"/>
-      <c r="H462" s="9"/>
+      <c r="H462" s="8"/>
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6"/>
       <c r="D463" s="1"/>
       <c r="E463" s="0"/>
       <c r="F463" s="1"/>
-      <c r="H463" s="9"/>
+      <c r="H463" s="8"/>
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6"/>
       <c r="D464" s="1"/>
       <c r="E464" s="0"/>
       <c r="F464" s="1"/>
-      <c r="H464" s="9"/>
+      <c r="H464" s="8"/>
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6"/>
       <c r="D465" s="1"/>
       <c r="E465" s="0"/>
       <c r="F465" s="1"/>
-      <c r="H465" s="9"/>
+      <c r="H465" s="8"/>
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6"/>
       <c r="D466" s="1"/>
       <c r="E466" s="0"/>
       <c r="F466" s="1"/>
-      <c r="H466" s="9"/>
+      <c r="H466" s="8"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6"/>
       <c r="D467" s="1"/>
       <c r="E467" s="0"/>
       <c r="F467" s="1"/>
-      <c r="H467" s="9"/>
+      <c r="H467" s="8"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6"/>
       <c r="D468" s="1"/>
       <c r="E468" s="0"/>
       <c r="F468" s="1"/>
-      <c r="H468" s="9"/>
+      <c r="H468" s="8"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6"/>
       <c r="D469" s="1"/>
       <c r="E469" s="0"/>
       <c r="F469" s="1"/>
-      <c r="H469" s="9"/>
+      <c r="H469" s="8"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="6"/>
       <c r="D470" s="1"/>
       <c r="E470" s="0"/>
       <c r="F470" s="1"/>
-      <c r="H470" s="9"/>
+      <c r="H470" s="8"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6"/>
       <c r="D471" s="1"/>
       <c r="E471" s="0"/>
       <c r="F471" s="1"/>
-      <c r="H471" s="9"/>
+      <c r="H471" s="8"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6"/>
       <c r="D472" s="1"/>
       <c r="E472" s="0"/>
       <c r="F472" s="1"/>
-      <c r="H472" s="9"/>
+      <c r="H472" s="8"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6"/>
       <c r="D473" s="1"/>
       <c r="E473" s="0"/>
       <c r="F473" s="1"/>
-      <c r="H473" s="9"/>
+      <c r="H473" s="8"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6"/>
       <c r="D474" s="1"/>
       <c r="E474" s="0"/>
       <c r="F474" s="1"/>
-      <c r="H474" s="9"/>
+      <c r="H474" s="8"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6"/>
       <c r="D475" s="1"/>
       <c r="E475" s="0"/>
       <c r="F475" s="1"/>
-      <c r="H475" s="9"/>
+      <c r="H475" s="8"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6"/>
       <c r="D476" s="1"/>
       <c r="E476" s="0"/>
       <c r="F476" s="1"/>
-      <c r="H476" s="9"/>
+      <c r="H476" s="8"/>
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6"/>
       <c r="D477" s="1"/>
       <c r="E477" s="0"/>
       <c r="F477" s="1"/>
-      <c r="H477" s="9"/>
+      <c r="H477" s="8"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6"/>
       <c r="D478" s="1"/>
       <c r="E478" s="0"/>
       <c r="F478" s="1"/>
-      <c r="H478" s="9"/>
+      <c r="H478" s="8"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="6"/>
       <c r="D479" s="1"/>
       <c r="E479" s="0"/>
       <c r="F479" s="1"/>
-      <c r="H479" s="9"/>
+      <c r="H479" s="8"/>
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="6"/>
       <c r="D480" s="1"/>
       <c r="E480" s="0"/>
       <c r="F480" s="1"/>
-      <c r="H480" s="9"/>
+      <c r="H480" s="8"/>
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6"/>
       <c r="D481" s="1"/>
       <c r="E481" s="0"/>
       <c r="F481" s="1"/>
-      <c r="H481" s="9"/>
+      <c r="H481" s="8"/>
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="6"/>
       <c r="D482" s="1"/>
       <c r="E482" s="0"/>
       <c r="F482" s="1"/>
-      <c r="H482" s="9"/>
+      <c r="H482" s="8"/>
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="6"/>
       <c r="D483" s="1"/>
       <c r="E483" s="0"/>
       <c r="F483" s="1"/>
-      <c r="H483" s="9"/>
+      <c r="H483" s="8"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="6"/>
       <c r="D484" s="1"/>
       <c r="E484" s="0"/>
       <c r="F484" s="1"/>
-      <c r="H484" s="9"/>
+      <c r="H484" s="8"/>
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="6"/>
       <c r="D485" s="1"/>
       <c r="E485" s="0"/>
       <c r="F485" s="1"/>
-      <c r="H485" s="9"/>
+      <c r="H485" s="8"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="6"/>
       <c r="D486" s="1"/>
       <c r="E486" s="0"/>
       <c r="F486" s="1"/>
-      <c r="H486" s="9"/>
+      <c r="H486" s="8"/>
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="6"/>
       <c r="D487" s="1"/>
       <c r="E487" s="0"/>
       <c r="F487" s="1"/>
-      <c r="H487" s="9"/>
+      <c r="H487" s="8"/>
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="6"/>
       <c r="D488" s="1"/>
       <c r="E488" s="0"/>
       <c r="F488" s="1"/>
-      <c r="H488" s="9"/>
+      <c r="H488" s="8"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="6"/>
       <c r="D489" s="1"/>
       <c r="E489" s="0"/>
       <c r="F489" s="1"/>
-      <c r="H489" s="9"/>
+      <c r="H489" s="8"/>
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="6"/>
       <c r="D490" s="1"/>
       <c r="E490" s="0"/>
       <c r="F490" s="1"/>
-      <c r="H490" s="9"/>
+      <c r="H490" s="8"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="6"/>
       <c r="D491" s="1"/>
       <c r="E491" s="0"/>
       <c r="F491" s="1"/>
-      <c r="H491" s="9"/>
+      <c r="H491" s="8"/>
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="6"/>
       <c r="D492" s="1"/>
       <c r="E492" s="0"/>
       <c r="F492" s="1"/>
-      <c r="H492" s="9"/>
+      <c r="H492" s="8"/>
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="6"/>
       <c r="D493" s="1"/>
       <c r="E493" s="0"/>
       <c r="F493" s="1"/>
-      <c r="H493" s="9"/>
+      <c r="H493" s="8"/>
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="6"/>
       <c r="D494" s="1"/>
       <c r="E494" s="0"/>
       <c r="F494" s="1"/>
-      <c r="H494" s="9"/>
+      <c r="H494" s="8"/>
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="6"/>
       <c r="D495" s="1"/>
       <c r="E495" s="0"/>
       <c r="F495" s="1"/>
-      <c r="H495" s="9"/>
+      <c r="H495" s="8"/>
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="6"/>
       <c r="D496" s="1"/>
       <c r="E496" s="0"/>
       <c r="F496" s="1"/>
-      <c r="H496" s="9"/>
+      <c r="H496" s="8"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="6"/>
       <c r="D497" s="1"/>
       <c r="E497" s="0"/>
       <c r="F497" s="1"/>
-      <c r="H497" s="9"/>
+      <c r="H497" s="8"/>
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="6"/>
       <c r="D498" s="1"/>
       <c r="E498" s="0"/>
       <c r="F498" s="1"/>
-      <c r="H498" s="9"/>
+      <c r="H498" s="8"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="6"/>
       <c r="D499" s="1"/>
       <c r="E499" s="0"/>
       <c r="F499" s="1"/>
-      <c r="H499" s="9"/>
+      <c r="H499" s="8"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="6"/>
       <c r="D500" s="1"/>
       <c r="E500" s="0"/>
       <c r="F500" s="1"/>
-      <c r="H500" s="9"/>
+      <c r="H500" s="8"/>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="6"/>
       <c r="D501" s="1"/>
       <c r="E501" s="0"/>
       <c r="F501" s="1"/>
-      <c r="H501" s="9"/>
+      <c r="H501" s="8"/>
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="6"/>
       <c r="D502" s="1"/>
       <c r="E502" s="0"/>
       <c r="F502" s="1"/>
-      <c r="H502" s="9"/>
+      <c r="H502" s="8"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="6"/>
       <c r="D503" s="1"/>
       <c r="E503" s="0"/>
       <c r="F503" s="1"/>
-      <c r="H503" s="9"/>
+      <c r="H503" s="8"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="6"/>
       <c r="D504" s="1"/>
       <c r="E504" s="0"/>
       <c r="F504" s="1"/>
-      <c r="H504" s="9"/>
+      <c r="H504" s="8"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="6"/>
       <c r="D505" s="1"/>
       <c r="E505" s="0"/>
       <c r="F505" s="1"/>
-      <c r="H505" s="9"/>
+      <c r="H505" s="8"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="6"/>
       <c r="D506" s="1"/>
       <c r="E506" s="0"/>
       <c r="F506" s="1"/>
-      <c r="H506" s="9"/>
+      <c r="H506" s="8"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="6"/>
       <c r="D507" s="1"/>
       <c r="E507" s="0"/>
       <c r="F507" s="1"/>
-      <c r="H507" s="9"/>
+      <c r="H507" s="8"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="6"/>
       <c r="D508" s="1"/>
       <c r="E508" s="0"/>
       <c r="F508" s="1"/>
-      <c r="H508" s="9"/>
+      <c r="H508" s="8"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="6"/>
       <c r="D509" s="1"/>
       <c r="E509" s="0"/>
       <c r="F509" s="1"/>
-      <c r="H509" s="9"/>
+      <c r="H509" s="8"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="6"/>
       <c r="D510" s="1"/>
       <c r="E510" s="0"/>
       <c r="F510" s="1"/>
-      <c r="H510" s="9"/>
+      <c r="H510" s="8"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="6"/>
       <c r="D511" s="1"/>
       <c r="E511" s="0"/>
       <c r="F511" s="1"/>
-      <c r="H511" s="9"/>
+      <c r="H511" s="8"/>
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="6"/>
       <c r="D512" s="1"/>
       <c r="E512" s="0"/>
       <c r="F512" s="1"/>
-      <c r="H512" s="9"/>
+      <c r="H512" s="8"/>
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="6"/>
       <c r="D513" s="1"/>
       <c r="E513" s="0"/>
       <c r="F513" s="1"/>
-      <c r="H513" s="9"/>
+      <c r="H513" s="8"/>
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="6"/>
       <c r="D514" s="1"/>
       <c r="E514" s="0"/>
       <c r="F514" s="1"/>
-      <c r="H514" s="9"/>
+      <c r="H514" s="8"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="6"/>
       <c r="D515" s="1"/>
       <c r="E515" s="0"/>
       <c r="F515" s="1"/>
-      <c r="H515" s="9"/>
+      <c r="H515" s="8"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="6"/>
       <c r="D516" s="1"/>
       <c r="E516" s="0"/>
       <c r="F516" s="1"/>
-      <c r="H516" s="9"/>
+      <c r="H516" s="8"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="6"/>
       <c r="D517" s="1"/>
       <c r="E517" s="0"/>
       <c r="F517" s="1"/>
-      <c r="H517" s="9"/>
+      <c r="H517" s="8"/>
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="6"/>
       <c r="D518" s="1"/>
       <c r="E518" s="0"/>
       <c r="F518" s="1"/>
-      <c r="H518" s="9"/>
+      <c r="H518" s="8"/>
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="6"/>
       <c r="D519" s="1"/>
       <c r="E519" s="0"/>
       <c r="F519" s="1"/>
-      <c r="H519" s="9"/>
+      <c r="H519" s="8"/>
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="6"/>
       <c r="D520" s="1"/>
       <c r="E520" s="0"/>
       <c r="F520" s="1"/>
-      <c r="H520" s="9"/>
+      <c r="H520" s="8"/>
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="6"/>
       <c r="D521" s="1"/>
       <c r="E521" s="0"/>
       <c r="F521" s="1"/>
-      <c r="H521" s="9"/>
+      <c r="H521" s="8"/>
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="6"/>
       <c r="D522" s="1"/>
       <c r="E522" s="0"/>
       <c r="F522" s="1"/>
-      <c r="H522" s="9"/>
+      <c r="H522" s="8"/>
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="6"/>
       <c r="D523" s="1"/>
       <c r="E523" s="0"/>
       <c r="F523" s="1"/>
-      <c r="H523" s="9"/>
+      <c r="H523" s="8"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="6"/>
       <c r="D524" s="1"/>
       <c r="E524" s="0"/>
       <c r="F524" s="1"/>
-      <c r="H524" s="9"/>
+      <c r="H524" s="8"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="6"/>
       <c r="D525" s="1"/>
       <c r="E525" s="0"/>
       <c r="F525" s="1"/>
-      <c r="H525" s="9"/>
+      <c r="H525" s="8"/>
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="6"/>
       <c r="D526" s="1"/>
       <c r="E526" s="0"/>
       <c r="F526" s="1"/>
-      <c r="H526" s="9"/>
+      <c r="H526" s="8"/>
     </row>
     <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="6"/>
       <c r="D527" s="1"/>
       <c r="E527" s="0"/>
       <c r="F527" s="1"/>
-      <c r="H527" s="9"/>
+      <c r="H527" s="8"/>
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="6"/>
       <c r="D528" s="1"/>
       <c r="E528" s="0"/>
       <c r="F528" s="1"/>
-      <c r="H528" s="9"/>
+      <c r="H528" s="8"/>
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="6"/>
       <c r="D529" s="1"/>
       <c r="E529" s="0"/>
       <c r="F529" s="1"/>
-      <c r="H529" s="9"/>
+      <c r="H529" s="8"/>
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="6"/>
       <c r="D530" s="1"/>
       <c r="E530" s="0"/>
       <c r="F530" s="1"/>
-      <c r="H530" s="9"/>
+      <c r="H530" s="8"/>
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="6"/>
       <c r="D531" s="1"/>
       <c r="E531" s="0"/>
       <c r="F531" s="1"/>
-      <c r="H531" s="9"/>
+      <c r="H531" s="8"/>
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="6"/>
       <c r="D532" s="1"/>
       <c r="E532" s="0"/>
       <c r="F532" s="1"/>
-      <c r="H532" s="9"/>
+      <c r="H532" s="8"/>
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="6"/>
       <c r="D533" s="1"/>
       <c r="E533" s="0"/>
       <c r="F533" s="1"/>
-      <c r="H533" s="9"/>
+      <c r="H533" s="8"/>
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="6"/>
       <c r="D534" s="1"/>
       <c r="E534" s="0"/>
       <c r="F534" s="1"/>
-      <c r="H534" s="9"/>
+      <c r="H534" s="8"/>
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="6"/>
       <c r="D535" s="1"/>
       <c r="E535" s="0"/>
       <c r="F535" s="1"/>
-      <c r="H535" s="9"/>
+      <c r="H535" s="8"/>
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="6"/>
       <c r="D536" s="1"/>
       <c r="E536" s="0"/>
       <c r="F536" s="1"/>
-      <c r="H536" s="9"/>
+      <c r="H536" s="8"/>
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="6"/>
       <c r="D537" s="1"/>
       <c r="E537" s="0"/>
       <c r="F537" s="1"/>
-      <c r="H537" s="9"/>
+      <c r="H537" s="8"/>
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="6"/>
       <c r="D538" s="1"/>
       <c r="E538" s="0"/>
       <c r="F538" s="1"/>
-      <c r="H538" s="9"/>
+      <c r="H538" s="8"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="6"/>
       <c r="D539" s="1"/>
       <c r="E539" s="0"/>
       <c r="F539" s="1"/>
-      <c r="H539" s="9"/>
+      <c r="H539" s="8"/>
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="6"/>
       <c r="D540" s="1"/>
       <c r="E540" s="0"/>
       <c r="F540" s="1"/>
-      <c r="H540" s="9"/>
+      <c r="H540" s="8"/>
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="6"/>
       <c r="D541" s="1"/>
       <c r="E541" s="0"/>
       <c r="F541" s="1"/>
-      <c r="H541" s="9"/>
+      <c r="H541" s="8"/>
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="6"/>
       <c r="D542" s="1"/>
       <c r="E542" s="0"/>
       <c r="F542" s="1"/>
-      <c r="H542" s="9"/>
+      <c r="H542" s="8"/>
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="6"/>
       <c r="D543" s="1"/>
       <c r="E543" s="0"/>
       <c r="F543" s="1"/>
-      <c r="H543" s="9"/>
+      <c r="H543" s="8"/>
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="6"/>
       <c r="D544" s="1"/>
       <c r="E544" s="0"/>
       <c r="F544" s="1"/>
-      <c r="H544" s="9"/>
+      <c r="H544" s="8"/>
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="6"/>
       <c r="D545" s="1"/>
       <c r="E545" s="0"/>
       <c r="F545" s="1"/>
-      <c r="H545" s="9"/>
+      <c r="H545" s="8"/>
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="6"/>
       <c r="D546" s="1"/>
       <c r="E546" s="0"/>
       <c r="F546" s="1"/>
-      <c r="H546" s="9"/>
+      <c r="H546" s="8"/>
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="6"/>
       <c r="D547" s="1"/>
       <c r="E547" s="0"/>
       <c r="F547" s="1"/>
-      <c r="H547" s="9"/>
+      <c r="H547" s="8"/>
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="6"/>
       <c r="D548" s="1"/>
       <c r="E548" s="0"/>
       <c r="F548" s="1"/>
-      <c r="H548" s="9"/>
+      <c r="H548" s="8"/>
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="6"/>
       <c r="D549" s="1"/>
       <c r="E549" s="0"/>
       <c r="F549" s="1"/>
-      <c r="H549" s="9"/>
+      <c r="H549" s="8"/>
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="6"/>
       <c r="D550" s="1"/>
       <c r="E550" s="0"/>
       <c r="F550" s="1"/>
-      <c r="H550" s="9"/>
+      <c r="H550" s="8"/>
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="6"/>
       <c r="D551" s="1"/>
       <c r="E551" s="0"/>
       <c r="F551" s="1"/>
-      <c r="H551" s="9"/>
+      <c r="H551" s="8"/>
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="6"/>
       <c r="D552" s="1"/>
       <c r="E552" s="0"/>
       <c r="F552" s="1"/>
-      <c r="H552" s="9"/>
+      <c r="H552" s="8"/>
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="6"/>
       <c r="D553" s="1"/>
       <c r="E553" s="0"/>
       <c r="F553" s="1"/>
-      <c r="H553" s="9"/>
+      <c r="H553" s="8"/>
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="6"/>
       <c r="D554" s="1"/>
       <c r="E554" s="0"/>
       <c r="F554" s="1"/>
-      <c r="H554" s="9"/>
+      <c r="H554" s="8"/>
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="6"/>
       <c r="D555" s="1"/>
       <c r="E555" s="0"/>
       <c r="F555" s="1"/>
-      <c r="H555" s="9"/>
+      <c r="H555" s="8"/>
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E556" s="0"/>
@@ -4408,7 +4401,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A555" type="list">
-      <formula1>Index!$B$2:$B$3</formula1>
+      <formula1>Index!$B$2:$B$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -4441,2318 +4434,2320 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="9"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="9"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="9"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="9"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="9"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="9"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="9"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="9"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="9"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="9"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="9"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
+      <c r="A102" s="8"/>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9"/>
-      <c r="B106" s="9"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="8"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9"/>
-      <c r="B109" s="9"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9"/>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9"/>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9"/>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="A114" s="8"/>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9"/>
-      <c r="B115" s="9"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
+      <c r="A115" s="8"/>
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9"/>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
+      <c r="A116" s="8"/>
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9"/>
-      <c r="B117" s="9"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
+      <c r="A117" s="8"/>
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9"/>
-      <c r="B118" s="9"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
+      <c r="A118" s="8"/>
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9"/>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9"/>
-      <c r="B120" s="9"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9"/>
-      <c r="B121" s="9"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
+      <c r="A121" s="8"/>
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
+      <c r="A122" s="8"/>
+      <c r="B122" s="8"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9"/>
-      <c r="B123" s="9"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
+      <c r="A123" s="8"/>
+      <c r="B123" s="8"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
+      <c r="A125" s="8"/>
+      <c r="B125" s="8"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+      <c r="A126" s="8"/>
+      <c r="B126" s="8"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9"/>
-      <c r="B130" s="9"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
+      <c r="A130" s="8"/>
+      <c r="B130" s="8"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9"/>
-      <c r="B131" s="9"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9"/>
-      <c r="B132" s="9"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
+      <c r="A132" s="8"/>
+      <c r="B132" s="8"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9"/>
-      <c r="B133" s="9"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9"/>
-      <c r="B134" s="9"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9"/>
-      <c r="B135" s="9"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9"/>
-      <c r="B136" s="9"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9"/>
-      <c r="B137" s="9"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
+      <c r="A138" s="8"/>
+      <c r="B138" s="8"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9"/>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
+      <c r="A139" s="8"/>
+      <c r="B139" s="8"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9"/>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
+      <c r="A140" s="8"/>
+      <c r="B140" s="8"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9"/>
-      <c r="B141" s="9"/>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
+      <c r="A141" s="8"/>
+      <c r="B141" s="8"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9"/>
-      <c r="B142" s="9"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9"/>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9"/>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9"/>
-      <c r="B145" s="9"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
+      <c r="A146" s="8"/>
+      <c r="B146" s="8"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9"/>
-      <c r="B147" s="9"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9"/>
-      <c r="B148" s="9"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9"/>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9"/>
-      <c r="B150" s="9"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9"/>
-      <c r="B151" s="9"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9"/>
-      <c r="B152" s="9"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9"/>
-      <c r="B153" s="9"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
+      <c r="A153" s="8"/>
+      <c r="B153" s="8"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9"/>
-      <c r="B154" s="9"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
+      <c r="A154" s="8"/>
+      <c r="B154" s="8"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9"/>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
+      <c r="A155" s="8"/>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9"/>
-      <c r="B156" s="9"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9"/>
-      <c r="B157" s="9"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9"/>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9"/>
-      <c r="B159" s="9"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9"/>
-      <c r="B160" s="9"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9"/>
-      <c r="B161" s="9"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+      <c r="A161" s="8"/>
+      <c r="B161" s="8"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9"/>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9"/>
-      <c r="B163" s="9"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9"/>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9"/>
-      <c r="B165" s="9"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
+      <c r="A165" s="8"/>
+      <c r="B165" s="8"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9"/>
-      <c r="B166" s="9"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9"/>
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
+      <c r="A167" s="8"/>
+      <c r="B167" s="8"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
+      <c r="A169" s="8"/>
+      <c r="B169" s="8"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
+      <c r="A170" s="8"/>
+      <c r="B170" s="8"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9"/>
-      <c r="B171" s="9"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
+      <c r="A171" s="8"/>
+      <c r="B171" s="8"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9"/>
-      <c r="B172" s="9"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
+      <c r="A172" s="8"/>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9"/>
-      <c r="B173" s="9"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
+      <c r="A173" s="8"/>
+      <c r="B173" s="8"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9"/>
-      <c r="B174" s="9"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9"/>
-      <c r="B175" s="9"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
+      <c r="A175" s="8"/>
+      <c r="B175" s="8"/>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9"/>
-      <c r="B176" s="9"/>
-      <c r="C176" s="9"/>
-      <c r="D176" s="9"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9"/>
-      <c r="B177" s="9"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
+      <c r="A177" s="8"/>
+      <c r="B177" s="8"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9"/>
-      <c r="B178" s="9"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
+      <c r="A178" s="8"/>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9"/>
-      <c r="B179" s="9"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
+      <c r="A179" s="8"/>
+      <c r="B179" s="8"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9"/>
-      <c r="B180" s="9"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
+      <c r="A180" s="8"/>
+      <c r="B180" s="8"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9"/>
-      <c r="B181" s="9"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
+      <c r="A181" s="8"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
+      <c r="A182" s="8"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9"/>
-      <c r="B183" s="9"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
+      <c r="A183" s="8"/>
+      <c r="B183" s="8"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9"/>
-      <c r="B184" s="9"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
+      <c r="A184" s="8"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9"/>
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9"/>
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
+      <c r="A186" s="8"/>
+      <c r="B186" s="8"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="9"/>
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
+      <c r="A187" s="8"/>
+      <c r="B187" s="8"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9"/>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
+      <c r="A188" s="8"/>
+      <c r="B188" s="8"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9"/>
-      <c r="B189" s="9"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
+      <c r="A189" s="8"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9"/>
-      <c r="B190" s="9"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
+      <c r="A190" s="8"/>
+      <c r="B190" s="8"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9"/>
-      <c r="B191" s="9"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
+      <c r="A191" s="8"/>
+      <c r="B191" s="8"/>
+      <c r="C191" s="8"/>
+      <c r="D191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9"/>
-      <c r="B192" s="9"/>
-      <c r="C192" s="9"/>
-      <c r="D192" s="9"/>
+      <c r="A192" s="8"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="8"/>
+      <c r="D192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9"/>
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9"/>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
+      <c r="C194" s="8"/>
+      <c r="D194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9"/>
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
+      <c r="A195" s="8"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="8"/>
+      <c r="D195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9"/>
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
+      <c r="A196" s="8"/>
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9"/>
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
+      <c r="A197" s="8"/>
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9"/>
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
+      <c r="A198" s="8"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9"/>
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
+      <c r="A199" s="8"/>
+      <c r="B199" s="8"/>
+      <c r="C199" s="8"/>
+      <c r="D199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="9"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
+      <c r="A200" s="8"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="8"/>
+      <c r="D200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="9"/>
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
+      <c r="A201" s="8"/>
+      <c r="B201" s="8"/>
+      <c r="C201" s="8"/>
+      <c r="D201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="9"/>
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="9"/>
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
+      <c r="A203" s="8"/>
+      <c r="B203" s="8"/>
+      <c r="C203" s="8"/>
+      <c r="D203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="9"/>
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
+      <c r="C204" s="8"/>
+      <c r="D204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="9"/>
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
+      <c r="A205" s="8"/>
+      <c r="B205" s="8"/>
+      <c r="C205" s="8"/>
+      <c r="D205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="9"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
+      <c r="A206" s="8"/>
+      <c r="B206" s="8"/>
+      <c r="C206" s="8"/>
+      <c r="D206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="9"/>
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
+      <c r="A207" s="8"/>
+      <c r="B207" s="8"/>
+      <c r="C207" s="8"/>
+      <c r="D207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="9"/>
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
+      <c r="A208" s="8"/>
+      <c r="B208" s="8"/>
+      <c r="C208" s="8"/>
+      <c r="D208" s="8"/>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="9"/>
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
+      <c r="A209" s="8"/>
+      <c r="B209" s="8"/>
+      <c r="C209" s="8"/>
+      <c r="D209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="9"/>
-      <c r="B210" s="9"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
+      <c r="A210" s="8"/>
+      <c r="B210" s="8"/>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="9"/>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="9"/>
-      <c r="B212" s="9"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
+      <c r="A212" s="8"/>
+      <c r="B212" s="8"/>
+      <c r="C212" s="8"/>
+      <c r="D212" s="8"/>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="9"/>
-      <c r="B213" s="9"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="9"/>
+      <c r="A213" s="8"/>
+      <c r="B213" s="8"/>
+      <c r="C213" s="8"/>
+      <c r="D213" s="8"/>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="9"/>
-      <c r="B214" s="9"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
+      <c r="A214" s="8"/>
+      <c r="B214" s="8"/>
+      <c r="C214" s="8"/>
+      <c r="D214" s="8"/>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
+      <c r="A215" s="8"/>
+      <c r="B215" s="8"/>
+      <c r="C215" s="8"/>
+      <c r="D215" s="8"/>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="9"/>
-      <c r="B216" s="9"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
+      <c r="A216" s="8"/>
+      <c r="B216" s="8"/>
+      <c r="C216" s="8"/>
+      <c r="D216" s="8"/>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="9"/>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
+      <c r="A217" s="8"/>
+      <c r="B217" s="8"/>
+      <c r="C217" s="8"/>
+      <c r="D217" s="8"/>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="9"/>
-      <c r="B218" s="9"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
+      <c r="A218" s="8"/>
+      <c r="B218" s="8"/>
+      <c r="C218" s="8"/>
+      <c r="D218" s="8"/>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
+      <c r="A219" s="8"/>
+      <c r="B219" s="8"/>
+      <c r="C219" s="8"/>
+      <c r="D219" s="8"/>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="9"/>
-      <c r="B221" s="9"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
+      <c r="A221" s="8"/>
+      <c r="B221" s="8"/>
+      <c r="C221" s="8"/>
+      <c r="D221" s="8"/>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
+      <c r="A222" s="8"/>
+      <c r="B222" s="8"/>
+      <c r="C222" s="8"/>
+      <c r="D222" s="8"/>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
+      <c r="A223" s="8"/>
+      <c r="B223" s="8"/>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
+      <c r="A224" s="8"/>
+      <c r="B224" s="8"/>
+      <c r="C224" s="8"/>
+      <c r="D224" s="8"/>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="9"/>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
+      <c r="A225" s="8"/>
+      <c r="B225" s="8"/>
+      <c r="C225" s="8"/>
+      <c r="D225" s="8"/>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
+      <c r="A226" s="8"/>
+      <c r="B226" s="8"/>
+      <c r="C226" s="8"/>
+      <c r="D226" s="8"/>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
+      <c r="A227" s="8"/>
+      <c r="B227" s="8"/>
+      <c r="C227" s="8"/>
+      <c r="D227" s="8"/>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
-      <c r="D228" s="9"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="8"/>
+      <c r="D229" s="8"/>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
+      <c r="A230" s="8"/>
+      <c r="B230" s="8"/>
+      <c r="C230" s="8"/>
+      <c r="D230" s="8"/>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
+      <c r="A231" s="8"/>
+      <c r="B231" s="8"/>
+      <c r="C231" s="8"/>
+      <c r="D231" s="8"/>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="9"/>
-      <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
+      <c r="A232" s="8"/>
+      <c r="B232" s="8"/>
+      <c r="C232" s="8"/>
+      <c r="D232" s="8"/>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="9"/>
-      <c r="B233" s="9"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
+      <c r="A233" s="8"/>
+      <c r="B233" s="8"/>
+      <c r="C233" s="8"/>
+      <c r="D233" s="8"/>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="9"/>
-      <c r="B234" s="9"/>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
+      <c r="A234" s="8"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="8"/>
+      <c r="D234" s="8"/>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="9"/>
-      <c r="B235" s="9"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
+      <c r="A235" s="8"/>
+      <c r="B235" s="8"/>
+      <c r="C235" s="8"/>
+      <c r="D235" s="8"/>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="9"/>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="9"/>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
+      <c r="A237" s="8"/>
+      <c r="B237" s="8"/>
+      <c r="C237" s="8"/>
+      <c r="D237" s="8"/>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="9"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
+      <c r="A238" s="8"/>
+      <c r="B238" s="8"/>
+      <c r="C238" s="8"/>
+      <c r="D238" s="8"/>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="9"/>
-      <c r="B239" s="9"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
+      <c r="A239" s="8"/>
+      <c r="B239" s="8"/>
+      <c r="C239" s="8"/>
+      <c r="D239" s="8"/>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="9"/>
-      <c r="B240" s="9"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
+      <c r="A240" s="8"/>
+      <c r="B240" s="8"/>
+      <c r="C240" s="8"/>
+      <c r="D240" s="8"/>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="9"/>
-      <c r="B241" s="9"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="9"/>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
+      <c r="A242" s="8"/>
+      <c r="B242" s="8"/>
+      <c r="C242" s="8"/>
+      <c r="D242" s="8"/>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="9"/>
-      <c r="B243" s="9"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
+      <c r="A243" s="8"/>
+      <c r="B243" s="8"/>
+      <c r="C243" s="8"/>
+      <c r="D243" s="8"/>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="9"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="9"/>
-      <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
+      <c r="A245" s="8"/>
+      <c r="B245" s="8"/>
+      <c r="C245" s="8"/>
+      <c r="D245" s="8"/>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="9"/>
-      <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9"/>
+      <c r="A246" s="8"/>
+      <c r="B246" s="8"/>
+      <c r="C246" s="8"/>
+      <c r="D246" s="8"/>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="9"/>
-      <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9"/>
+      <c r="A247" s="8"/>
+      <c r="B247" s="8"/>
+      <c r="C247" s="8"/>
+      <c r="D247" s="8"/>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="9"/>
-      <c r="B248" s="9"/>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9"/>
+      <c r="A248" s="8"/>
+      <c r="B248" s="8"/>
+      <c r="C248" s="8"/>
+      <c r="D248" s="8"/>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="9"/>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
+      <c r="A249" s="8"/>
+      <c r="B249" s="8"/>
+      <c r="C249" s="8"/>
+      <c r="D249" s="8"/>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="9"/>
-      <c r="B250" s="9"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
+      <c r="A250" s="8"/>
+      <c r="B250" s="8"/>
+      <c r="C250" s="8"/>
+      <c r="D250" s="8"/>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="9"/>
-      <c r="B251" s="9"/>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9"/>
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="8"/>
+      <c r="D251" s="8"/>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="9"/>
-      <c r="B252" s="9"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="9"/>
-      <c r="B253" s="9"/>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9"/>
+      <c r="A253" s="8"/>
+      <c r="B253" s="8"/>
+      <c r="C253" s="8"/>
+      <c r="D253" s="8"/>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="9"/>
-      <c r="B254" s="9"/>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9"/>
+      <c r="A254" s="8"/>
+      <c r="B254" s="8"/>
+      <c r="C254" s="8"/>
+      <c r="D254" s="8"/>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="9"/>
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9"/>
+      <c r="A255" s="8"/>
+      <c r="B255" s="8"/>
+      <c r="C255" s="8"/>
+      <c r="D255" s="8"/>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="9"/>
-      <c r="B256" s="9"/>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9"/>
+      <c r="A256" s="8"/>
+      <c r="B256" s="8"/>
+      <c r="C256" s="8"/>
+      <c r="D256" s="8"/>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="9"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
+      <c r="A257" s="8"/>
+      <c r="B257" s="8"/>
+      <c r="C257" s="8"/>
+      <c r="D257" s="8"/>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="9"/>
-      <c r="B258" s="9"/>
-      <c r="C258" s="9"/>
-      <c r="D258" s="9"/>
+      <c r="A258" s="8"/>
+      <c r="B258" s="8"/>
+      <c r="C258" s="8"/>
+      <c r="D258" s="8"/>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="9"/>
-      <c r="B259" s="9"/>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
+      <c r="A259" s="8"/>
+      <c r="B259" s="8"/>
+      <c r="C259" s="8"/>
+      <c r="D259" s="8"/>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="9"/>
-      <c r="B260" s="9"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="9"/>
-      <c r="B261" s="9"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
+      <c r="A261" s="8"/>
+      <c r="B261" s="8"/>
+      <c r="C261" s="8"/>
+      <c r="D261" s="8"/>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="9"/>
-      <c r="B262" s="9"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
+      <c r="A262" s="8"/>
+      <c r="B262" s="8"/>
+      <c r="C262" s="8"/>
+      <c r="D262" s="8"/>
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="9"/>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
+      <c r="A263" s="8"/>
+      <c r="B263" s="8"/>
+      <c r="C263" s="8"/>
+      <c r="D263" s="8"/>
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="9"/>
-      <c r="B264" s="9"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9"/>
+      <c r="A264" s="8"/>
+      <c r="B264" s="8"/>
+      <c r="C264" s="8"/>
+      <c r="D264" s="8"/>
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="9"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="8"/>
+      <c r="D265" s="8"/>
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="9"/>
-      <c r="B266" s="9"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
+      <c r="A266" s="8"/>
+      <c r="B266" s="8"/>
+      <c r="C266" s="8"/>
+      <c r="D266" s="8"/>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="9"/>
-      <c r="B267" s="9"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
+      <c r="A267" s="8"/>
+      <c r="B267" s="8"/>
+      <c r="C267" s="8"/>
+      <c r="D267" s="8"/>
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="9"/>
-      <c r="B268" s="9"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="9"/>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
+      <c r="A269" s="8"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="8"/>
+      <c r="D269" s="8"/>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="9"/>
-      <c r="B270" s="9"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
+      <c r="A270" s="8"/>
+      <c r="B270" s="8"/>
+      <c r="C270" s="8"/>
+      <c r="D270" s="8"/>
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="9"/>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
+      <c r="A271" s="8"/>
+      <c r="B271" s="8"/>
+      <c r="C271" s="8"/>
+      <c r="D271" s="8"/>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="9"/>
-      <c r="B272" s="9"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
+      <c r="A272" s="8"/>
+      <c r="B272" s="8"/>
+      <c r="C272" s="8"/>
+      <c r="D272" s="8"/>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="9"/>
-      <c r="B273" s="9"/>
-      <c r="C273" s="9"/>
-      <c r="D273" s="9"/>
+      <c r="A273" s="8"/>
+      <c r="B273" s="8"/>
+      <c r="C273" s="8"/>
+      <c r="D273" s="8"/>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="9"/>
-      <c r="B274" s="9"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9"/>
+      <c r="A274" s="8"/>
+      <c r="B274" s="8"/>
+      <c r="C274" s="8"/>
+      <c r="D274" s="8"/>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="9"/>
-      <c r="B275" s="9"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9"/>
+      <c r="A275" s="8"/>
+      <c r="B275" s="8"/>
+      <c r="C275" s="8"/>
+      <c r="D275" s="8"/>
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="9"/>
-      <c r="B276" s="9"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="9"/>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
+      <c r="A277" s="8"/>
+      <c r="B277" s="8"/>
+      <c r="C277" s="8"/>
+      <c r="D277" s="8"/>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="9"/>
-      <c r="B278" s="9"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
+      <c r="A278" s="8"/>
+      <c r="B278" s="8"/>
+      <c r="C278" s="8"/>
+      <c r="D278" s="8"/>
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="9"/>
-      <c r="B279" s="9"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9"/>
+      <c r="A279" s="8"/>
+      <c r="B279" s="8"/>
+      <c r="C279" s="8"/>
+      <c r="D279" s="8"/>
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="9"/>
-      <c r="B280" s="9"/>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
+      <c r="A280" s="8"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="8"/>
+      <c r="D280" s="8"/>
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="9"/>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9"/>
+      <c r="A281" s="8"/>
+      <c r="B281" s="8"/>
+      <c r="C281" s="8"/>
+      <c r="D281" s="8"/>
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="9"/>
-      <c r="B282" s="9"/>
-      <c r="C282" s="9"/>
-      <c r="D282" s="9"/>
+      <c r="A282" s="8"/>
+      <c r="B282" s="8"/>
+      <c r="C282" s="8"/>
+      <c r="D282" s="8"/>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="9"/>
-      <c r="B283" s="9"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9"/>
+      <c r="A283" s="8"/>
+      <c r="B283" s="8"/>
+      <c r="C283" s="8"/>
+      <c r="D283" s="8"/>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="9"/>
-      <c r="B284" s="9"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="9"/>
-      <c r="B285" s="9"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="9"/>
+      <c r="A285" s="8"/>
+      <c r="B285" s="8"/>
+      <c r="C285" s="8"/>
+      <c r="D285" s="8"/>
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="9"/>
-      <c r="B286" s="9"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9"/>
+      <c r="A286" s="8"/>
+      <c r="B286" s="8"/>
+      <c r="C286" s="8"/>
+      <c r="D286" s="8"/>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="9"/>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9"/>
+      <c r="A287" s="8"/>
+      <c r="B287" s="8"/>
+      <c r="C287" s="8"/>
+      <c r="D287" s="8"/>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="9"/>
-      <c r="B288" s="9"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9"/>
+      <c r="A288" s="8"/>
+      <c r="B288" s="8"/>
+      <c r="C288" s="8"/>
+      <c r="D288" s="8"/>
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="9"/>
-      <c r="B289" s="9"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
+      <c r="A289" s="8"/>
+      <c r="B289" s="8"/>
+      <c r="C289" s="8"/>
+      <c r="D289" s="8"/>
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="9"/>
-      <c r="B290" s="9"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
+      <c r="A290" s="8"/>
+      <c r="B290" s="8"/>
+      <c r="C290" s="8"/>
+      <c r="D290" s="8"/>
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="9"/>
-      <c r="B291" s="9"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
+      <c r="A291" s="8"/>
+      <c r="B291" s="8"/>
+      <c r="C291" s="8"/>
+      <c r="D291" s="8"/>
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="9"/>
-      <c r="B292" s="9"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="9"/>
-      <c r="B293" s="9"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
+      <c r="A293" s="8"/>
+      <c r="B293" s="8"/>
+      <c r="C293" s="8"/>
+      <c r="D293" s="8"/>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="9"/>
-      <c r="B294" s="9"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
+      <c r="A294" s="8"/>
+      <c r="B294" s="8"/>
+      <c r="C294" s="8"/>
+      <c r="D294" s="8"/>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="9"/>
-      <c r="B295" s="9"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
+      <c r="A295" s="8"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="8"/>
+      <c r="D295" s="8"/>
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="9"/>
-      <c r="B296" s="9"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
+      <c r="A296" s="8"/>
+      <c r="B296" s="8"/>
+      <c r="C296" s="8"/>
+      <c r="D296" s="8"/>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="9"/>
-      <c r="B297" s="9"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
+      <c r="A297" s="8"/>
+      <c r="B297" s="8"/>
+      <c r="C297" s="8"/>
+      <c r="D297" s="8"/>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="9"/>
-      <c r="B298" s="9"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9"/>
+      <c r="A298" s="8"/>
+      <c r="B298" s="8"/>
+      <c r="C298" s="8"/>
+      <c r="D298" s="8"/>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="9"/>
-      <c r="B299" s="9"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
+      <c r="A299" s="8"/>
+      <c r="B299" s="8"/>
+      <c r="C299" s="8"/>
+      <c r="D299" s="8"/>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="9"/>
-      <c r="B300" s="9"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="9"/>
-      <c r="B301" s="9"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
+      <c r="A301" s="8"/>
+      <c r="B301" s="8"/>
+      <c r="C301" s="8"/>
+      <c r="D301" s="8"/>
     </row>
     <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="9"/>
-      <c r="B302" s="9"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9"/>
+      <c r="A302" s="8"/>
+      <c r="B302" s="8"/>
+      <c r="C302" s="8"/>
+      <c r="D302" s="8"/>
     </row>
     <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="9"/>
-      <c r="B303" s="9"/>
-      <c r="C303" s="9"/>
-      <c r="D303" s="9"/>
+      <c r="A303" s="8"/>
+      <c r="B303" s="8"/>
+      <c r="C303" s="8"/>
+      <c r="D303" s="8"/>
     </row>
     <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="9"/>
-      <c r="B304" s="9"/>
-      <c r="C304" s="9"/>
-      <c r="D304" s="9"/>
+      <c r="A304" s="8"/>
+      <c r="B304" s="8"/>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
     </row>
     <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="9"/>
-      <c r="B305" s="9"/>
-      <c r="C305" s="9"/>
-      <c r="D305" s="9"/>
+      <c r="A305" s="8"/>
+      <c r="B305" s="8"/>
+      <c r="C305" s="8"/>
+      <c r="D305" s="8"/>
     </row>
     <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="9"/>
-      <c r="B306" s="9"/>
-      <c r="C306" s="9"/>
-      <c r="D306" s="9"/>
+      <c r="A306" s="8"/>
+      <c r="B306" s="8"/>
+      <c r="C306" s="8"/>
+      <c r="D306" s="8"/>
     </row>
     <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="9"/>
-      <c r="B307" s="9"/>
-      <c r="C307" s="9"/>
-      <c r="D307" s="9"/>
+      <c r="A307" s="8"/>
+      <c r="B307" s="8"/>
+      <c r="C307" s="8"/>
+      <c r="D307" s="8"/>
     </row>
     <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="9"/>
-      <c r="B308" s="9"/>
-      <c r="C308" s="9"/>
-      <c r="D308" s="9"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8"/>
     </row>
     <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="9"/>
-      <c r="B309" s="9"/>
-      <c r="C309" s="9"/>
-      <c r="D309" s="9"/>
+      <c r="A309" s="8"/>
+      <c r="B309" s="8"/>
+      <c r="C309" s="8"/>
+      <c r="D309" s="8"/>
     </row>
     <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="9"/>
-      <c r="B310" s="9"/>
-      <c r="C310" s="9"/>
-      <c r="D310" s="9"/>
+      <c r="A310" s="8"/>
+      <c r="B310" s="8"/>
+      <c r="C310" s="8"/>
+      <c r="D310" s="8"/>
     </row>
     <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="9"/>
-      <c r="B311" s="9"/>
-      <c r="C311" s="9"/>
-      <c r="D311" s="9"/>
+      <c r="A311" s="8"/>
+      <c r="B311" s="8"/>
+      <c r="C311" s="8"/>
+      <c r="D311" s="8"/>
     </row>
     <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="9"/>
-      <c r="B312" s="9"/>
-      <c r="C312" s="9"/>
-      <c r="D312" s="9"/>
+      <c r="A312" s="8"/>
+      <c r="B312" s="8"/>
+      <c r="C312" s="8"/>
+      <c r="D312" s="8"/>
     </row>
     <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="9"/>
-      <c r="B313" s="9"/>
-      <c r="C313" s="9"/>
-      <c r="D313" s="9"/>
+      <c r="A313" s="8"/>
+      <c r="B313" s="8"/>
+      <c r="C313" s="8"/>
+      <c r="D313" s="8"/>
     </row>
     <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="9"/>
-      <c r="B314" s="9"/>
-      <c r="C314" s="9"/>
-      <c r="D314" s="9"/>
+      <c r="A314" s="8"/>
+      <c r="B314" s="8"/>
+      <c r="C314" s="8"/>
+      <c r="D314" s="8"/>
     </row>
     <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="9"/>
-      <c r="B315" s="9"/>
-      <c r="C315" s="9"/>
-      <c r="D315" s="9"/>
+      <c r="A315" s="8"/>
+      <c r="B315" s="8"/>
+      <c r="C315" s="8"/>
+      <c r="D315" s="8"/>
     </row>
     <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="9"/>
-      <c r="B316" s="9"/>
-      <c r="C316" s="9"/>
-      <c r="D316" s="9"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
+      <c r="C316" s="8"/>
+      <c r="D316" s="8"/>
     </row>
     <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="9"/>
-      <c r="B317" s="9"/>
-      <c r="C317" s="9"/>
-      <c r="D317" s="9"/>
+      <c r="A317" s="8"/>
+      <c r="B317" s="8"/>
+      <c r="C317" s="8"/>
+      <c r="D317" s="8"/>
     </row>
     <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="9"/>
-      <c r="B318" s="9"/>
-      <c r="C318" s="9"/>
-      <c r="D318" s="9"/>
+      <c r="A318" s="8"/>
+      <c r="B318" s="8"/>
+      <c r="C318" s="8"/>
+      <c r="D318" s="8"/>
     </row>
     <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="9"/>
-      <c r="B319" s="9"/>
-      <c r="C319" s="9"/>
-      <c r="D319" s="9"/>
+      <c r="A319" s="8"/>
+      <c r="B319" s="8"/>
+      <c r="C319" s="8"/>
+      <c r="D319" s="8"/>
     </row>
     <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="9"/>
-      <c r="B320" s="9"/>
-      <c r="C320" s="9"/>
-      <c r="D320" s="9"/>
+      <c r="A320" s="8"/>
+      <c r="B320" s="8"/>
+      <c r="C320" s="8"/>
+      <c r="D320" s="8"/>
     </row>
     <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="9"/>
-      <c r="B321" s="9"/>
-      <c r="C321" s="9"/>
-      <c r="D321" s="9"/>
+      <c r="A321" s="8"/>
+      <c r="B321" s="8"/>
+      <c r="C321" s="8"/>
+      <c r="D321" s="8"/>
     </row>
     <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="9"/>
-      <c r="B322" s="9"/>
-      <c r="C322" s="9"/>
-      <c r="D322" s="9"/>
+      <c r="A322" s="8"/>
+      <c r="B322" s="8"/>
+      <c r="C322" s="8"/>
+      <c r="D322" s="8"/>
     </row>
     <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="9"/>
-      <c r="B323" s="9"/>
-      <c r="C323" s="9"/>
-      <c r="D323" s="9"/>
+      <c r="A323" s="8"/>
+      <c r="B323" s="8"/>
+      <c r="C323" s="8"/>
+      <c r="D323" s="8"/>
     </row>
     <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="9"/>
-      <c r="B324" s="9"/>
-      <c r="C324" s="9"/>
-      <c r="D324" s="9"/>
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
+      <c r="C324" s="8"/>
+      <c r="D324" s="8"/>
     </row>
     <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="9"/>
-      <c r="B325" s="9"/>
-      <c r="C325" s="9"/>
-      <c r="D325" s="9"/>
+      <c r="A325" s="8"/>
+      <c r="B325" s="8"/>
+      <c r="C325" s="8"/>
+      <c r="D325" s="8"/>
     </row>
     <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="9"/>
-      <c r="B326" s="9"/>
-      <c r="C326" s="9"/>
-      <c r="D326" s="9"/>
+      <c r="A326" s="8"/>
+      <c r="B326" s="8"/>
+      <c r="C326" s="8"/>
+      <c r="D326" s="8"/>
     </row>
     <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="9"/>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="9"/>
+      <c r="A327" s="8"/>
+      <c r="B327" s="8"/>
+      <c r="C327" s="8"/>
+      <c r="D327" s="8"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="9"/>
-      <c r="B328" s="9"/>
-      <c r="C328" s="9"/>
-      <c r="D328" s="9"/>
+      <c r="A328" s="8"/>
+      <c r="B328" s="8"/>
+      <c r="C328" s="8"/>
+      <c r="D328" s="8"/>
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="9"/>
-      <c r="B329" s="9"/>
-      <c r="C329" s="9"/>
-      <c r="D329" s="9"/>
+      <c r="A329" s="8"/>
+      <c r="B329" s="8"/>
+      <c r="C329" s="8"/>
+      <c r="D329" s="8"/>
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="9"/>
-      <c r="B330" s="9"/>
-      <c r="C330" s="9"/>
-      <c r="D330" s="9"/>
+      <c r="A330" s="8"/>
+      <c r="B330" s="8"/>
+      <c r="C330" s="8"/>
+      <c r="D330" s="8"/>
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="9"/>
-      <c r="B331" s="9"/>
-      <c r="C331" s="9"/>
-      <c r="D331" s="9"/>
+      <c r="A331" s="8"/>
+      <c r="B331" s="8"/>
+      <c r="C331" s="8"/>
+      <c r="D331" s="8"/>
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="9"/>
-      <c r="B332" s="9"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="9"/>
+      <c r="A332" s="8"/>
+      <c r="B332" s="8"/>
+      <c r="C332" s="8"/>
+      <c r="D332" s="8"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="9"/>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
+      <c r="A333" s="8"/>
+      <c r="B333" s="8"/>
+      <c r="C333" s="8"/>
+      <c r="D333" s="8"/>
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="9"/>
-      <c r="B334" s="9"/>
-      <c r="C334" s="9"/>
-      <c r="D334" s="9"/>
+      <c r="A334" s="8"/>
+      <c r="B334" s="8"/>
+      <c r="C334" s="8"/>
+      <c r="D334" s="8"/>
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="9"/>
-      <c r="B335" s="9"/>
-      <c r="C335" s="9"/>
-      <c r="D335" s="9"/>
+      <c r="A335" s="8"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="8"/>
+      <c r="D335" s="8"/>
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="9"/>
-      <c r="B336" s="9"/>
-      <c r="C336" s="9"/>
-      <c r="D336" s="9"/>
+      <c r="A336" s="8"/>
+      <c r="B336" s="8"/>
+      <c r="C336" s="8"/>
+      <c r="D336" s="8"/>
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="9"/>
-      <c r="B337" s="9"/>
-      <c r="C337" s="9"/>
-      <c r="D337" s="9"/>
+      <c r="A337" s="8"/>
+      <c r="B337" s="8"/>
+      <c r="C337" s="8"/>
+      <c r="D337" s="8"/>
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="9"/>
-      <c r="B338" s="9"/>
-      <c r="C338" s="9"/>
-      <c r="D338" s="9"/>
+      <c r="A338" s="8"/>
+      <c r="B338" s="8"/>
+      <c r="C338" s="8"/>
+      <c r="D338" s="8"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="9"/>
-      <c r="B339" s="9"/>
-      <c r="C339" s="9"/>
-      <c r="D339" s="9"/>
+      <c r="A339" s="8"/>
+      <c r="B339" s="8"/>
+      <c r="C339" s="8"/>
+      <c r="D339" s="8"/>
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="9"/>
-      <c r="B340" s="9"/>
-      <c r="C340" s="9"/>
-      <c r="D340" s="9"/>
+      <c r="A340" s="8"/>
+      <c r="B340" s="8"/>
+      <c r="C340" s="8"/>
+      <c r="D340" s="8"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="9"/>
-      <c r="B341" s="9"/>
-      <c r="C341" s="9"/>
-      <c r="D341" s="9"/>
+      <c r="A341" s="8"/>
+      <c r="B341" s="8"/>
+      <c r="C341" s="8"/>
+      <c r="D341" s="8"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="9"/>
-      <c r="B342" s="9"/>
-      <c r="C342" s="9"/>
-      <c r="D342" s="9"/>
+      <c r="A342" s="8"/>
+      <c r="B342" s="8"/>
+      <c r="C342" s="8"/>
+      <c r="D342" s="8"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="9"/>
-      <c r="B343" s="9"/>
-      <c r="C343" s="9"/>
-      <c r="D343" s="9"/>
+      <c r="A343" s="8"/>
+      <c r="B343" s="8"/>
+      <c r="C343" s="8"/>
+      <c r="D343" s="8"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="9"/>
-      <c r="B344" s="9"/>
-      <c r="C344" s="9"/>
-      <c r="D344" s="9"/>
+      <c r="A344" s="8"/>
+      <c r="B344" s="8"/>
+      <c r="C344" s="8"/>
+      <c r="D344" s="8"/>
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="9"/>
-      <c r="B345" s="9"/>
-      <c r="C345" s="9"/>
-      <c r="D345" s="9"/>
+      <c r="A345" s="8"/>
+      <c r="B345" s="8"/>
+      <c r="C345" s="8"/>
+      <c r="D345" s="8"/>
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="9"/>
-      <c r="B346" s="9"/>
-      <c r="C346" s="9"/>
-      <c r="D346" s="9"/>
+      <c r="A346" s="8"/>
+      <c r="B346" s="8"/>
+      <c r="C346" s="8"/>
+      <c r="D346" s="8"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="9"/>
-      <c r="B347" s="9"/>
-      <c r="C347" s="9"/>
-      <c r="D347" s="9"/>
+      <c r="A347" s="8"/>
+      <c r="B347" s="8"/>
+      <c r="C347" s="8"/>
+      <c r="D347" s="8"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="9"/>
-      <c r="B348" s="9"/>
-      <c r="C348" s="9"/>
-      <c r="D348" s="9"/>
+      <c r="A348" s="8"/>
+      <c r="B348" s="8"/>
+      <c r="C348" s="8"/>
+      <c r="D348" s="8"/>
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="9"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="9"/>
-      <c r="D349" s="9"/>
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
+      <c r="C349" s="8"/>
+      <c r="D349" s="8"/>
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="9"/>
-      <c r="B350" s="9"/>
-      <c r="C350" s="9"/>
-      <c r="D350" s="9"/>
+      <c r="A350" s="8"/>
+      <c r="B350" s="8"/>
+      <c r="C350" s="8"/>
+      <c r="D350" s="8"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="9"/>
-      <c r="B351" s="9"/>
-      <c r="C351" s="9"/>
-      <c r="D351" s="9"/>
+      <c r="A351" s="8"/>
+      <c r="B351" s="8"/>
+      <c r="C351" s="8"/>
+      <c r="D351" s="8"/>
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="9"/>
-      <c r="B352" s="9"/>
-      <c r="C352" s="9"/>
-      <c r="D352" s="9"/>
+      <c r="A352" s="8"/>
+      <c r="B352" s="8"/>
+      <c r="C352" s="8"/>
+      <c r="D352" s="8"/>
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="9"/>
-      <c r="B353" s="9"/>
-      <c r="C353" s="9"/>
-      <c r="D353" s="9"/>
+      <c r="A353" s="8"/>
+      <c r="B353" s="8"/>
+      <c r="C353" s="8"/>
+      <c r="D353" s="8"/>
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="9"/>
-      <c r="B354" s="9"/>
-      <c r="C354" s="9"/>
-      <c r="D354" s="9"/>
+      <c r="A354" s="8"/>
+      <c r="B354" s="8"/>
+      <c r="C354" s="8"/>
+      <c r="D354" s="8"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="9"/>
-      <c r="B355" s="9"/>
-      <c r="C355" s="9"/>
-      <c r="D355" s="9"/>
+      <c r="A355" s="8"/>
+      <c r="B355" s="8"/>
+      <c r="C355" s="8"/>
+      <c r="D355" s="8"/>
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="9"/>
-      <c r="B356" s="9"/>
-      <c r="C356" s="9"/>
-      <c r="D356" s="9"/>
+      <c r="A356" s="8"/>
+      <c r="B356" s="8"/>
+      <c r="C356" s="8"/>
+      <c r="D356" s="8"/>
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="9"/>
-      <c r="B357" s="9"/>
-      <c r="C357" s="9"/>
-      <c r="D357" s="9"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="8"/>
+      <c r="D357" s="8"/>
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="9"/>
-      <c r="B358" s="9"/>
-      <c r="C358" s="9"/>
-      <c r="D358" s="9"/>
+      <c r="A358" s="8"/>
+      <c r="B358" s="8"/>
+      <c r="C358" s="8"/>
+      <c r="D358" s="8"/>
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="9"/>
-      <c r="B359" s="9"/>
-      <c r="C359" s="9"/>
-      <c r="D359" s="9"/>
+      <c r="A359" s="8"/>
+      <c r="B359" s="8"/>
+      <c r="C359" s="8"/>
+      <c r="D359" s="8"/>
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="9"/>
-      <c r="B360" s="9"/>
-      <c r="C360" s="9"/>
-      <c r="D360" s="9"/>
+      <c r="A360" s="8"/>
+      <c r="B360" s="8"/>
+      <c r="C360" s="8"/>
+      <c r="D360" s="8"/>
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="9"/>
-      <c r="B361" s="9"/>
-      <c r="C361" s="9"/>
-      <c r="D361" s="9"/>
+      <c r="A361" s="8"/>
+      <c r="B361" s="8"/>
+      <c r="C361" s="8"/>
+      <c r="D361" s="8"/>
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="9"/>
-      <c r="B362" s="9"/>
-      <c r="C362" s="9"/>
-      <c r="D362" s="9"/>
+      <c r="A362" s="8"/>
+      <c r="B362" s="8"/>
+      <c r="C362" s="8"/>
+      <c r="D362" s="8"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="9"/>
-      <c r="B363" s="9"/>
-      <c r="C363" s="9"/>
-      <c r="D363" s="9"/>
+      <c r="A363" s="8"/>
+      <c r="B363" s="8"/>
+      <c r="C363" s="8"/>
+      <c r="D363" s="8"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="9"/>
-      <c r="B364" s="9"/>
-      <c r="C364" s="9"/>
-      <c r="D364" s="9"/>
+      <c r="A364" s="8"/>
+      <c r="B364" s="8"/>
+      <c r="C364" s="8"/>
+      <c r="D364" s="8"/>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="9"/>
-      <c r="B365" s="9"/>
-      <c r="C365" s="9"/>
-      <c r="D365" s="9"/>
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="D365" s="8"/>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="9"/>
-      <c r="B366" s="9"/>
-      <c r="C366" s="9"/>
-      <c r="D366" s="9"/>
+      <c r="A366" s="8"/>
+      <c r="B366" s="8"/>
+      <c r="C366" s="8"/>
+      <c r="D366" s="8"/>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="9"/>
-      <c r="B367" s="9"/>
-      <c r="C367" s="9"/>
-      <c r="D367" s="9"/>
+      <c r="A367" s="8"/>
+      <c r="B367" s="8"/>
+      <c r="C367" s="8"/>
+      <c r="D367" s="8"/>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="9"/>
-      <c r="B368" s="9"/>
-      <c r="C368" s="9"/>
-      <c r="D368" s="9"/>
+      <c r="A368" s="8"/>
+      <c r="B368" s="8"/>
+      <c r="C368" s="8"/>
+      <c r="D368" s="8"/>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="9"/>
-      <c r="B369" s="9"/>
-      <c r="C369" s="9"/>
-      <c r="D369" s="9"/>
+      <c r="A369" s="8"/>
+      <c r="B369" s="8"/>
+      <c r="C369" s="8"/>
+      <c r="D369" s="8"/>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="9"/>
-      <c r="B370" s="9"/>
-      <c r="C370" s="9"/>
-      <c r="D370" s="9"/>
+      <c r="A370" s="8"/>
+      <c r="B370" s="8"/>
+      <c r="C370" s="8"/>
+      <c r="D370" s="8"/>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="9"/>
-      <c r="B371" s="9"/>
-      <c r="C371" s="9"/>
-      <c r="D371" s="9"/>
+      <c r="A371" s="8"/>
+      <c r="B371" s="8"/>
+      <c r="C371" s="8"/>
+      <c r="D371" s="8"/>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="9"/>
-      <c r="B372" s="9"/>
-      <c r="C372" s="9"/>
-      <c r="D372" s="9"/>
+      <c r="A372" s="8"/>
+      <c r="B372" s="8"/>
+      <c r="C372" s="8"/>
+      <c r="D372" s="8"/>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="9"/>
-      <c r="B373" s="9"/>
-      <c r="C373" s="9"/>
-      <c r="D373" s="9"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="8"/>
+      <c r="D373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="9"/>
-      <c r="B374" s="9"/>
-      <c r="C374" s="9"/>
-      <c r="D374" s="9"/>
+      <c r="A374" s="8"/>
+      <c r="B374" s="8"/>
+      <c r="C374" s="8"/>
+      <c r="D374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="9"/>
-      <c r="B375" s="9"/>
-      <c r="C375" s="9"/>
-      <c r="D375" s="9"/>
+      <c r="A375" s="8"/>
+      <c r="B375" s="8"/>
+      <c r="C375" s="8"/>
+      <c r="D375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="9"/>
-      <c r="B376" s="9"/>
-      <c r="C376" s="9"/>
-      <c r="D376" s="9"/>
+      <c r="A376" s="8"/>
+      <c r="B376" s="8"/>
+      <c r="C376" s="8"/>
+      <c r="D376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="9"/>
-      <c r="B377" s="9"/>
-      <c r="C377" s="9"/>
-      <c r="D377" s="9"/>
+      <c r="A377" s="8"/>
+      <c r="B377" s="8"/>
+      <c r="C377" s="8"/>
+      <c r="D377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B378" s="9"/>
-      <c r="C378" s="9"/>
-      <c r="D378" s="9"/>
+      <c r="B378" s="8"/>
+      <c r="C378" s="8"/>
+      <c r="D378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B379" s="9"/>
-      <c r="C379" s="9"/>
-      <c r="D379" s="9"/>
+      <c r="B379" s="8"/>
+      <c r="C379" s="8"/>
+      <c r="D379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B380" s="9"/>
-      <c r="C380" s="9"/>
-      <c r="D380" s="9"/>
+      <c r="B380" s="8"/>
+      <c r="C380" s="8"/>
+      <c r="D380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B381" s="9"/>
-      <c r="C381" s="9"/>
-      <c r="D381" s="9"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="D381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B382" s="9"/>
-      <c r="C382" s="9"/>
-      <c r="D382" s="9"/>
+      <c r="B382" s="8"/>
+      <c r="C382" s="8"/>
+      <c r="D382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B383" s="9"/>
-      <c r="C383" s="9"/>
-      <c r="D383" s="9"/>
+      <c r="B383" s="8"/>
+      <c r="C383" s="8"/>
+      <c r="D383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B384" s="9"/>
-      <c r="C384" s="9"/>
-      <c r="D384" s="9"/>
+      <c r="B384" s="8"/>
+      <c r="C384" s="8"/>
+      <c r="D384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B385" s="9"/>
-      <c r="C385" s="9"/>
-      <c r="D385" s="9"/>
+      <c r="B385" s="8"/>
+      <c r="C385" s="8"/>
+      <c r="D385" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
